--- a/KAE Ausz KonPe KTZH.xlsx
+++ b/KAE Ausz KonPe KTZH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\STAT\01_Post\Schlaepfer\covid19monitoring\economy_AWA_private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\STAT\01_Post\Schlaepfer\covid19monitoring\covid19monitoring_economy_AWA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="März 2020" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="März 2021" sheetId="13" r:id="rId13"/>
     <sheet name="April 2021" sheetId="14" r:id="rId14"/>
     <sheet name="Mai 2021" sheetId="15" r:id="rId15"/>
+    <sheet name="Juni 2021" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="55">
   <si>
     <t>Metriken</t>
   </si>
@@ -200,6 +201,9 @@
   </si>
   <si>
     <t>Mai 2021</t>
+  </si>
+  <si>
+    <t>Juni 2021</t>
   </si>
 </sst>
 </file>
@@ -532,7 +536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -617,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -727,10 +733,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C19" s="2">
-        <v>3584</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -738,10 +744,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C20" s="2">
-        <v>3562</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -749,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="C21" s="2">
         <v>9979</v>
@@ -760,10 +766,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C22" s="2">
-        <v>12022</v>
+        <v>12030</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -782,10 +788,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3382</v>
+        <v>3389</v>
       </c>
       <c r="C24" s="2">
-        <v>34229</v>
+        <v>34230</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -826,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="C28" s="2">
         <v>21178</v>
@@ -837,10 +843,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C29" s="2">
-        <v>23439</v>
+        <v>23433</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -870,10 +876,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="C32" s="2">
-        <v>12379</v>
+        <v>12374</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,10 +898,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C34" s="2">
-        <v>6654</v>
+        <v>6659</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,10 +920,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>20409</v>
+        <v>20425</v>
       </c>
       <c r="C36" s="2">
-        <v>176162</v>
+        <v>176144</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2">
         <v>2685</v>
@@ -1023,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2">
         <v>511</v>
@@ -1078,10 +1084,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2">
-        <v>1194</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,10 +1183,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2">
-        <v>14664</v>
+        <v>14668</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1188,10 +1194,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2448</v>
+        <v>2455</v>
       </c>
       <c r="C24" s="2">
-        <v>24765</v>
+        <v>24769</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C25" s="2">
         <v>1434</v>
@@ -1232,10 +1238,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C28" s="2">
-        <v>8410</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,10 +1249,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C29" s="2">
-        <v>8694</v>
+        <v>8709</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1287,10 +1293,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C33" s="2">
-        <v>7088</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C34" s="2">
         <v>2167</v>
@@ -1320,10 +1326,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8506</v>
+        <v>8523</v>
       </c>
       <c r="C36" s="2">
-        <v>90159</v>
+        <v>90196</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1435,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1539,10 +1545,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C19" s="2">
-        <v>2145</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1550,10 +1556,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C20" s="2">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1561,10 +1567,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C21" s="2">
-        <v>7577</v>
+        <v>7641</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1572,10 +1578,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="C22" s="2">
-        <v>8926</v>
+        <v>8976</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,10 +1589,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C23" s="2">
-        <v>14176</v>
+        <v>14196</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1594,10 +1600,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2741</v>
+        <v>2751</v>
       </c>
       <c r="C24" s="2">
-        <v>26120</v>
+        <v>26105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1627,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2">
         <v>612</v>
@@ -1638,10 +1644,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C28" s="2">
-        <v>16256</v>
+        <v>16247</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1649,10 +1655,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C29" s="2">
-        <v>10470</v>
+        <v>10469</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1682,10 +1688,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1693,7 +1699,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C33" s="2">
         <v>8889</v>
@@ -1704,10 +1710,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C34" s="2">
-        <v>2702</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1726,10 +1732,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11617</v>
+        <v>11650</v>
       </c>
       <c r="C36" s="2">
-        <v>116955</v>
+        <v>117065</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1841,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1945,10 +1951,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C19" s="2">
-        <v>2374</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1956,10 +1962,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C20" s="2">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1967,10 +1973,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C21" s="2">
-        <v>7926</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,10 +1984,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="C22" s="2">
-        <v>9330</v>
+        <v>9382</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1989,10 +1995,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C23" s="2">
-        <v>14560</v>
+        <v>14569</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2000,10 +2006,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="C24" s="2">
-        <v>25834</v>
+        <v>25845</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2011,10 +2017,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2022,10 +2028,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2033,10 +2039,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2047,7 +2053,7 @@
         <v>1479</v>
       </c>
       <c r="C28" s="2">
-        <v>16549</v>
+        <v>16572</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2055,7 +2061,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C29" s="2">
         <v>11081</v>
@@ -2088,10 +2094,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C32" s="2">
-        <v>1840</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2110,10 +2116,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C34" s="2">
-        <v>2819</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2132,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11924</v>
+        <v>11957</v>
       </c>
       <c r="C36" s="2">
-        <v>119549</v>
+        <v>119673</v>
       </c>
     </row>
   </sheetData>
@@ -2219,10 +2225,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="2">
-        <v>3542</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2241,10 +2247,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2">
-        <v>1023</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2285,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2">
         <v>696</v>
@@ -2351,10 +2357,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C19" s="2">
-        <v>2175</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2362,10 +2368,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C20" s="2">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2373,10 +2379,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C21" s="2">
-        <v>5983</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2384,10 +2390,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C22" s="2">
-        <v>3944</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2395,10 +2401,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C23" s="2">
-        <v>15092</v>
+        <v>15105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,10 +2412,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2451</v>
+        <v>2468</v>
       </c>
       <c r="C24" s="2">
-        <v>25002</v>
+        <v>25031</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2417,10 +2423,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2">
-        <v>1869</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,10 +2445,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2456,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C28" s="2">
-        <v>10236</v>
+        <v>10229</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,10 +2467,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C29" s="2">
-        <v>9610</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,7 +2500,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2">
         <v>1743</v>
@@ -2505,10 +2511,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C33" s="2">
-        <v>8177</v>
+        <v>8199</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,10 +2522,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C34" s="2">
-        <v>2618</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,10 +2544,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>9494</v>
+        <v>9546</v>
       </c>
       <c r="C36" s="2">
-        <v>99642</v>
+        <v>99764</v>
       </c>
     </row>
   </sheetData>
@@ -2625,10 +2631,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="2">
-        <v>2679</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2647,10 +2653,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2691,7 +2697,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="2">
         <v>514</v>
@@ -2702,10 +2708,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2757,10 +2763,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C19" s="2">
-        <v>1694</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2768,10 +2774,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2779,10 +2785,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C21" s="2">
-        <v>5188</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2790,10 +2796,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C22" s="2">
-        <v>2884</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2801,10 +2807,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C23" s="2">
-        <v>13948</v>
+        <v>13979</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2812,10 +2818,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2292</v>
+        <v>2319</v>
       </c>
       <c r="C24" s="2">
-        <v>23513</v>
+        <v>23636</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2823,10 +2829,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2">
-        <v>1573</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2845,10 +2851,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2856,10 +2862,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C28" s="2">
-        <v>8476</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2867,10 +2873,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="C29" s="2">
-        <v>8823</v>
+        <v>8958</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2900,10 +2906,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C32" s="2">
-        <v>1594</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2911,10 +2917,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C33" s="2">
-        <v>7166</v>
+        <v>7257</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,10 +2928,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C34" s="2">
-        <v>2197</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2944,10 +2950,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8218</v>
+        <v>8307</v>
       </c>
       <c r="C36" s="2">
-        <v>87046</v>
+        <v>87532</v>
       </c>
     </row>
   </sheetData>
@@ -2959,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3031,10 +3037,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C7" s="2">
-        <v>1958</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3053,10 +3059,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2">
-        <v>726</v>
+        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3086,10 +3092,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3097,7 +3103,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
         <v>280</v>
@@ -3108,10 +3114,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>540</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3130,10 +3136,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2">
-        <v>1191</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,10 +3169,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C19" s="2">
-        <v>1290</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3174,10 +3180,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C20" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3185,10 +3191,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C21" s="2">
-        <v>4238</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3196,10 +3202,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C22" s="2">
-        <v>2058</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3207,10 +3213,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C23" s="2">
-        <v>13217</v>
+        <v>13318</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3218,10 +3224,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2048</v>
+        <v>2110</v>
       </c>
       <c r="C24" s="2">
-        <v>21101</v>
+        <v>21615</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3229,10 +3235,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C25" s="2">
-        <v>1297</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3262,10 +3268,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="C28" s="2">
-        <v>5253</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3273,10 +3279,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="C29" s="2">
-        <v>7368</v>
+        <v>7733</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3295,10 +3301,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C31" s="2">
-        <v>1009</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3306,10 +3312,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2">
-        <v>951</v>
+        <v>980</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3317,10 +3323,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C33" s="2">
-        <v>3484</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3328,10 +3334,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C34" s="2">
-        <v>1850</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3350,10 +3356,416 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6723</v>
+        <v>6956</v>
       </c>
       <c r="C36" s="2">
-        <v>69919</v>
+        <v>72503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>151</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>298</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>212</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>178</v>
+      </c>
+      <c r="C23" s="2">
+        <v>13318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C24" s="2">
+        <v>21615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>492</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>383</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>69</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>103</v>
+      </c>
+      <c r="C32" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>176</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>221</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3834</v>
+      </c>
+      <c r="C36" s="2">
+        <v>72503</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3869,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C9" s="2">
         <v>1958</v>
@@ -3567,10 +3979,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C19" s="2">
-        <v>6998</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3578,10 +3990,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C20" s="2">
-        <v>5873</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3589,7 +4001,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C21" s="2">
         <v>19314</v>
@@ -3600,7 +4012,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="C22" s="2">
         <v>14201</v>
@@ -3611,10 +4023,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C23" s="2">
-        <v>20195</v>
+        <v>20193</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3622,10 +4034,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3376</v>
+        <v>3382</v>
       </c>
       <c r="C24" s="2">
-        <v>36241</v>
+        <v>36250</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3666,10 +4078,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3771</v>
+        <v>3776</v>
       </c>
       <c r="C28" s="2">
-        <v>32949</v>
+        <v>32939</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3677,10 +4089,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1803</v>
+        <v>1879</v>
       </c>
       <c r="C29" s="2">
-        <v>31648</v>
+        <v>31646</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3710,10 +4122,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C32" s="2">
-        <v>21940</v>
+        <v>21935</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3732,10 +4144,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C34" s="2">
-        <v>8427</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3754,10 +4166,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>26100</v>
+        <v>26193</v>
       </c>
       <c r="C36" s="2">
-        <v>252741</v>
+        <v>252726</v>
       </c>
     </row>
   </sheetData>
@@ -3770,7 +4182,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3841,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C7" s="2">
         <v>5355</v>
@@ -3863,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C9" s="2">
         <v>1963</v>
@@ -3973,10 +4385,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C19" s="2">
-        <v>5695</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3984,10 +4396,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C20" s="2">
-        <v>4085</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3995,7 +4407,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C21" s="2">
         <v>17775</v>
@@ -4006,7 +4418,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C22" s="2">
         <v>11682</v>
@@ -4017,10 +4429,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C23" s="2">
-        <v>19452</v>
+        <v>19454</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4028,10 +4440,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3125</v>
+        <v>3131</v>
       </c>
       <c r="C24" s="2">
-        <v>34510</v>
+        <v>34519</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4039,10 +4451,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C25" s="2">
-        <v>5570</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4072,10 +4484,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3634</v>
+        <v>3638</v>
       </c>
       <c r="C28" s="2">
-        <v>29487</v>
+        <v>29498</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4083,10 +4495,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="C29" s="2">
-        <v>21107</v>
+        <v>21102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4116,10 +4528,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C32" s="2">
-        <v>10094</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4138,10 +4550,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C34" s="2">
-        <v>5693</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4160,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>22186</v>
+        <v>22207</v>
       </c>
       <c r="C36" s="2">
-        <v>214255</v>
+        <v>214242</v>
       </c>
     </row>
   </sheetData>
@@ -4269,7 +4681,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C9" s="2">
         <v>1542</v>
@@ -4324,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2">
         <v>2887</v>
@@ -4379,10 +4791,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C19" s="2">
-        <v>2721</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4390,10 +4802,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C20" s="2">
-        <v>1467</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4401,10 +4813,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="C21" s="2">
-        <v>11199</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4423,10 +4835,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C23" s="2">
-        <v>29681</v>
+        <v>29678</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4434,10 +4846,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2305</v>
+        <v>2312</v>
       </c>
       <c r="C24" s="2">
-        <v>25466</v>
+        <v>25457</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4445,10 +4857,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C25" s="2">
-        <v>3759</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4456,7 +4868,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2">
         <v>891</v>
@@ -4478,10 +4890,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="C28" s="2">
-        <v>17713</v>
+        <v>17729</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4489,10 +4901,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C29" s="2">
-        <v>15391</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4533,7 +4945,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C33" s="2">
         <v>5629</v>
@@ -4566,10 +4978,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>13764</v>
+        <v>13788</v>
       </c>
       <c r="C36" s="2">
-        <v>151698</v>
+        <v>151677</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +5087,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2">
         <v>1169</v>
@@ -4730,7 +5142,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2">
         <v>2720</v>
@@ -4785,10 +5197,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C19" s="2">
-        <v>1815</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4807,10 +5219,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C21" s="2">
-        <v>8057</v>
+        <v>8056</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4829,10 +5241,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C23" s="2">
-        <v>16521</v>
+        <v>16518</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4840,10 +5252,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1828</v>
+        <v>1834</v>
       </c>
       <c r="C24" s="2">
-        <v>20680</v>
+        <v>20676</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4851,10 +5263,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2">
-        <v>2692</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4862,7 +5274,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2">
         <v>632</v>
@@ -4884,10 +5296,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="C28" s="2">
-        <v>12728</v>
+        <v>12743</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4895,7 +5307,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>956</v>
+        <v>1029</v>
       </c>
       <c r="C29" s="2">
         <v>10870</v>
@@ -4939,7 +5351,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C33" s="2">
         <v>2950</v>
@@ -4972,10 +5384,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>10323</v>
+        <v>10416</v>
       </c>
       <c r="C36" s="2">
-        <v>104450</v>
+        <v>104422</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5493,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2">
         <v>887</v>
@@ -5136,7 +5548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2">
         <v>2320</v>
@@ -5191,10 +5603,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C19" s="2">
-        <v>1505</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5213,10 +5625,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C21" s="2">
-        <v>6704</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5235,10 +5647,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C23" s="2">
-        <v>16188</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5246,10 +5658,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="C24" s="2">
-        <v>18608</v>
+        <v>18605</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5257,10 +5669,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2">
-        <v>2360</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5268,7 +5680,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C26" s="2">
         <v>608</v>
@@ -5290,10 +5702,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C28" s="2">
-        <v>10261</v>
+        <v>10282</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5301,7 +5713,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>890</v>
+        <v>964</v>
       </c>
       <c r="C29" s="2">
         <v>9632</v>
@@ -5345,7 +5757,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2">
         <v>2214</v>
@@ -5378,10 +5790,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8786</v>
+        <v>8880</v>
       </c>
       <c r="C36" s="2">
-        <v>89984</v>
+        <v>89965</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +5806,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5487,7 +5899,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <v>594</v>
@@ -5542,7 +5954,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2">
         <v>2404</v>
@@ -5619,10 +6031,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C21" s="2">
-        <v>3954</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5641,10 +6053,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C23" s="2">
-        <v>15446</v>
+        <v>15448</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5652,10 +6064,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1194</v>
+        <v>1199</v>
       </c>
       <c r="C24" s="2">
-        <v>14784</v>
+        <v>14776</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5663,10 +6075,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2">
-        <v>1933</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5707,10 +6119,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>616</v>
+        <v>688</v>
       </c>
       <c r="C29" s="2">
-        <v>7594</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5751,10 +6163,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5784,10 +6196,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6059</v>
+        <v>6143</v>
       </c>
       <c r="C36" s="2">
-        <v>69245</v>
+        <v>69230</v>
       </c>
     </row>
   </sheetData>
@@ -5893,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2">
         <v>591</v>
@@ -5948,7 +6360,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2">
         <v>1792</v>
@@ -6025,10 +6437,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C21" s="2">
-        <v>3918</v>
+        <v>3916</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6036,10 +6448,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C22" s="2">
-        <v>1836</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6047,10 +6459,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C23" s="2">
-        <v>14589</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6058,10 +6470,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="C24" s="2">
-        <v>16048</v>
+        <v>16047</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6069,10 +6481,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2">
-        <v>1835</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6113,10 +6525,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>603</v>
+        <v>633</v>
       </c>
       <c r="C29" s="2">
-        <v>7648</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6157,10 +6569,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6168,10 +6580,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C34" s="2">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6190,10 +6602,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6326</v>
+        <v>6370</v>
       </c>
       <c r="C36" s="2">
-        <v>68360</v>
+        <v>68353</v>
       </c>
     </row>
   </sheetData>
@@ -6299,7 +6711,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
         <v>550</v>
@@ -6354,7 +6766,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2">
         <v>2111</v>
@@ -6453,10 +6865,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C23" s="2">
-        <v>14479</v>
+        <v>14481</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6464,10 +6876,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="C24" s="6">
-        <v>21147</v>
+        <v>21151</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6475,10 +6887,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2">
-        <v>1934</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6508,7 +6920,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C28" s="2">
         <v>9112</v>
@@ -6519,10 +6931,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C29" s="2">
-        <v>8373</v>
+        <v>8387</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6563,10 +6975,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C33" s="2">
-        <v>4223</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6574,10 +6986,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C34" s="2">
-        <v>2037</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6596,10 +7008,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8062</v>
+        <v>8081</v>
       </c>
       <c r="C36" s="6">
-        <v>83124</v>
+        <v>83145</v>
       </c>
     </row>
   </sheetData>

--- a/KAE Ausz KonPe KTZH.xlsx
+++ b/KAE Ausz KonPe KTZH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="März 2020" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="April 2021" sheetId="14" r:id="rId14"/>
     <sheet name="Mai 2021" sheetId="15" r:id="rId15"/>
     <sheet name="Juni 2021" sheetId="16" r:id="rId16"/>
+    <sheet name="Juli 2021" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="56">
   <si>
     <t>Metriken</t>
   </si>
@@ -204,6 +205,9 @@
   </si>
   <si>
     <t>Juni 2021</t>
+  </si>
+  <si>
+    <t>Juli 2021</t>
   </si>
 </sst>
 </file>
@@ -537,7 +541,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C36"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,7 +759,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="C21" s="2">
         <v>9979</v>
@@ -766,10 +770,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="C22" s="2">
-        <v>12030</v>
+        <v>12028</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -777,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C23" s="2">
         <v>16048</v>
@@ -788,10 +792,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3389</v>
+        <v>3394</v>
       </c>
       <c r="C24" s="2">
-        <v>34230</v>
+        <v>34231</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,10 +814,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C26" s="2">
-        <v>1246</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -832,10 +836,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2554</v>
+        <v>2560</v>
       </c>
       <c r="C28" s="2">
-        <v>21178</v>
+        <v>21183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -843,10 +847,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="C29" s="2">
-        <v>23433</v>
+        <v>23437</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -865,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C31" s="2">
         <v>6499</v>
@@ -876,7 +880,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="C32" s="2">
         <v>12374</v>
@@ -920,10 +924,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>20425</v>
+        <v>20449</v>
       </c>
       <c r="C36" s="2">
-        <v>176144</v>
+        <v>176142</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2">
         <v>2685</v>
@@ -1029,7 +1033,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2">
         <v>511</v>
@@ -1084,10 +1088,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2">
-        <v>1203</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1139,10 +1143,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C19" s="2">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1172,10 +1176,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C22" s="2">
-        <v>3388</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1183,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C23" s="2">
         <v>14668</v>
@@ -1194,10 +1198,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2455</v>
+        <v>2462</v>
       </c>
       <c r="C24" s="2">
-        <v>24769</v>
+        <v>24764</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,10 +1242,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C28" s="2">
-        <v>8402</v>
+        <v>8488</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1249,10 +1253,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="C29" s="2">
-        <v>8709</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,7 +1275,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C31" s="2">
         <v>1443</v>
@@ -1293,10 +1297,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C33" s="2">
-        <v>7101</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,10 +1308,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C34" s="2">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1326,10 +1330,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8523</v>
+        <v>8622</v>
       </c>
       <c r="C36" s="2">
-        <v>90196</v>
+        <v>90238</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2">
         <v>3690</v>
@@ -1435,10 +1439,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1512,10 +1516,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2">
-        <v>1505</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1545,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C19" s="2">
         <v>2146</v>
@@ -1567,10 +1571,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C21" s="2">
-        <v>7641</v>
+        <v>7644</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,10 +1582,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1353</v>
+        <v>1363</v>
       </c>
       <c r="C22" s="2">
-        <v>8976</v>
+        <v>9086</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,10 +1604,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2751</v>
+        <v>2759</v>
       </c>
       <c r="C24" s="2">
-        <v>26105</v>
+        <v>26123</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1626,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1644,10 +1648,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="C28" s="2">
-        <v>16247</v>
+        <v>16241</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C29" s="2">
         <v>10469</v>
@@ -1677,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2">
-        <v>1876</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C33" s="2">
         <v>8889</v>
@@ -1710,10 +1714,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C34" s="2">
-        <v>2706</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1732,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11650</v>
+        <v>11690</v>
       </c>
       <c r="C36" s="2">
-        <v>117065</v>
+        <v>117249</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2">
         <v>3740</v>
@@ -1841,10 +1845,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1918,10 +1922,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1951,10 +1955,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C19" s="2">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1973,10 +1977,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="C21" s="2">
-        <v>7958</v>
+        <v>8015</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1984,10 +1988,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="C22" s="2">
-        <v>9382</v>
+        <v>9407</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1995,10 +1999,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C23" s="2">
-        <v>14569</v>
+        <v>14573</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2006,10 +2010,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2655</v>
+        <v>2664</v>
       </c>
       <c r="C24" s="2">
-        <v>25845</v>
+        <v>25856</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2050,10 +2054,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1479</v>
+        <v>1486</v>
       </c>
       <c r="C28" s="2">
-        <v>16572</v>
+        <v>16586</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,10 +2065,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C29" s="2">
-        <v>11081</v>
+        <v>11157</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,10 +2087,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2">
-        <v>2181</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,10 +2098,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2">
-        <v>1839</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,7 +2109,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C33" s="2">
         <v>8530</v>
@@ -2116,10 +2120,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C34" s="2">
-        <v>2823</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,10 +2142,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11957</v>
+        <v>12001</v>
       </c>
       <c r="C36" s="2">
-        <v>119673</v>
+        <v>119946</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2">
         <v>1029</v>
@@ -2357,10 +2361,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C19" s="2">
-        <v>2174</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2368,7 +2372,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C20" s="2">
         <v>1013</v>
@@ -2390,10 +2394,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="C22" s="2">
-        <v>3946</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2401,10 +2405,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C23" s="2">
-        <v>15105</v>
+        <v>15134</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2412,10 +2416,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2468</v>
+        <v>2476</v>
       </c>
       <c r="C24" s="2">
-        <v>25031</v>
+        <v>25048</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2456,10 +2460,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="C28" s="2">
-        <v>10229</v>
+        <v>10251</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2467,10 +2471,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C29" s="2">
-        <v>9611</v>
+        <v>9609</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2500,10 +2504,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C32" s="2">
-        <v>1743</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2511,10 +2515,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C33" s="2">
-        <v>8199</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2522,10 +2526,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C34" s="2">
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2544,10 +2548,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>9546</v>
+        <v>9597</v>
       </c>
       <c r="C36" s="2">
-        <v>99764</v>
+        <v>99957</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2">
         <v>836</v>
@@ -2697,10 +2701,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2">
-        <v>514</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2708,10 +2712,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2">
-        <v>818</v>
+        <v>841</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2763,10 +2767,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C19" s="2">
-        <v>1697</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2774,7 +2778,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2">
         <v>511</v>
@@ -2785,10 +2789,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C21" s="2">
-        <v>5195</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2796,10 +2800,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C22" s="2">
-        <v>2896</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2807,10 +2811,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C23" s="2">
-        <v>13979</v>
+        <v>13989</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2818,10 +2822,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2319</v>
+        <v>2333</v>
       </c>
       <c r="C24" s="2">
-        <v>23636</v>
+        <v>23808</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2829,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2">
-        <v>1597</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2851,10 +2855,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2862,10 +2866,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>907</v>
+        <v>920</v>
       </c>
       <c r="C28" s="2">
-        <v>8479</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2873,10 +2877,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="C29" s="2">
-        <v>8958</v>
+        <v>8977</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2895,10 +2899,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C31" s="2">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2906,10 +2910,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C32" s="2">
-        <v>1604</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2917,10 +2921,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="C33" s="2">
-        <v>7257</v>
+        <v>7343</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2928,10 +2932,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C34" s="2">
-        <v>2224</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2950,10 +2954,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8307</v>
+        <v>8392</v>
       </c>
       <c r="C36" s="2">
-        <v>87532</v>
+        <v>88064</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2970,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3047,11 +3051,11 @@
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
+      <c r="B8" s="2">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3092,10 +3096,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3103,10 +3107,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2">
-        <v>280</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3169,10 +3173,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C19" s="2">
-        <v>1330</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3180,10 +3184,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3191,10 +3195,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C21" s="2">
-        <v>4315</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3202,10 +3206,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C22" s="2">
-        <v>2209</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3213,10 +3217,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C23" s="2">
-        <v>13318</v>
+        <v>13333</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3224,10 +3228,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="C24" s="2">
-        <v>21615</v>
+        <v>21731</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3235,10 +3239,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2">
-        <v>1524</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3246,10 +3250,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3268,10 +3272,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="C28" s="2">
-        <v>5943</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3279,10 +3283,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="C29" s="2">
-        <v>7733</v>
+        <v>7854</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3301,10 +3305,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C31" s="2">
-        <v>1127</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3312,10 +3316,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2">
-        <v>980</v>
+        <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3323,10 +3327,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C33" s="2">
-        <v>3581</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3334,10 +3338,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C34" s="2">
-        <v>1899</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3356,10 +3360,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6956</v>
+        <v>7065</v>
       </c>
       <c r="C36" s="2">
-        <v>72503</v>
+        <v>73041</v>
       </c>
     </row>
   </sheetData>
@@ -3371,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3443,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
-        <v>2017</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3465,10 +3469,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2">
-        <v>734</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3498,10 +3502,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
-        <v>501</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3509,10 +3513,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3520,10 +3524,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>560</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3542,10 +3546,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2">
-        <v>1213</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3575,10 +3579,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2">
-        <v>1330</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3586,10 +3590,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2">
-        <v>374</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3597,10 +3601,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C21" s="2">
-        <v>4315</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3608,10 +3612,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2">
-        <v>2209</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3619,10 +3623,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2">
-        <v>13318</v>
+        <v>11251</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3630,10 +3634,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1001</v>
+        <v>1118</v>
       </c>
       <c r="C24" s="2">
-        <v>21615</v>
+        <v>14104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3641,10 +3645,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2">
-        <v>1524</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3652,10 +3656,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
-        <v>310</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3663,10 +3667,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C27" s="2">
-        <v>360</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3674,10 +3678,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>492</v>
+        <v>542</v>
       </c>
       <c r="C28" s="2">
-        <v>5943</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3685,10 +3689,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="C29" s="2">
-        <v>7733</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3707,10 +3711,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2">
-        <v>1127</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3718,10 +3722,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2">
-        <v>980</v>
+        <v>768</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3729,10 +3733,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="C33" s="2">
-        <v>3581</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,10 +3744,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2">
-        <v>1899</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3762,10 +3766,416 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>3834</v>
+        <v>4236</v>
       </c>
       <c r="C36" s="2">
-        <v>72503</v>
+        <v>51728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>98</v>
+      </c>
+      <c r="C19" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>197</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>123</v>
+      </c>
+      <c r="C22" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>110</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>535</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>323</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>288</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>126</v>
+      </c>
+      <c r="C34" s="2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2370</v>
+      </c>
+      <c r="C36" s="2">
+        <v>25913</v>
       </c>
     </row>
   </sheetData>
@@ -3913,10 +4323,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2">
-        <v>5519</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4001,7 +4411,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="C21" s="2">
         <v>19314</v>
@@ -4012,7 +4422,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="C22" s="2">
         <v>14201</v>
@@ -4023,7 +4433,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C23" s="2">
         <v>20193</v>
@@ -4034,10 +4444,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="C24" s="2">
-        <v>36250</v>
+        <v>36251</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4056,10 +4466,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C26" s="2">
-        <v>1723</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4078,10 +4488,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3776</v>
+        <v>3783</v>
       </c>
       <c r="C28" s="2">
-        <v>32939</v>
+        <v>32950</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4089,10 +4499,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="C29" s="2">
-        <v>31646</v>
+        <v>31657</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4122,7 +4532,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="C32" s="2">
         <v>21935</v>
@@ -4166,10 +4576,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>26193</v>
+        <v>26216</v>
       </c>
       <c r="C36" s="2">
-        <v>252726</v>
+        <v>252952</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4663,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C7" s="2">
         <v>5355</v>
@@ -4319,10 +4729,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C13" s="2">
-        <v>6568</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4407,7 +4817,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C21" s="2">
         <v>17775</v>
@@ -4418,10 +4828,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="C22" s="2">
-        <v>11682</v>
+        <v>11681</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4429,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C23" s="2">
         <v>19454</v>
@@ -4440,7 +4850,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="C24" s="2">
         <v>34519</v>
@@ -4462,10 +4872,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C26" s="2">
-        <v>1665</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4484,10 +4894,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3638</v>
+        <v>3645</v>
       </c>
       <c r="C28" s="2">
-        <v>29498</v>
+        <v>29506</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4528,7 +4938,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C32" s="2">
         <v>10089</v>
@@ -4572,10 +4982,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>22207</v>
+        <v>22226</v>
       </c>
       <c r="C36" s="2">
-        <v>214242</v>
+        <v>214349</v>
       </c>
     </row>
   </sheetData>
@@ -4802,10 +5212,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C20" s="2">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4813,7 +5223,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="C21" s="2">
         <v>11198</v>
@@ -4824,10 +5234,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C22" s="2">
-        <v>5481</v>
+        <v>5477</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4835,7 +5245,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2">
         <v>29678</v>
@@ -4846,10 +5256,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2312</v>
+        <v>2319</v>
       </c>
       <c r="C24" s="2">
-        <v>25457</v>
+        <v>25449</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4868,10 +5278,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2">
-        <v>891</v>
+        <v>880</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4890,10 +5300,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2137</v>
+        <v>2142</v>
       </c>
       <c r="C28" s="2">
-        <v>17729</v>
+        <v>17742</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4901,10 +5311,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C29" s="2">
-        <v>15390</v>
+        <v>15386</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4923,7 +5333,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C31" s="2">
         <v>3401</v>
@@ -4934,10 +5344,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C32" s="2">
-        <v>4002</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4978,10 +5388,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>13788</v>
+        <v>13814</v>
       </c>
       <c r="C36" s="2">
-        <v>151677</v>
+        <v>151661</v>
       </c>
     </row>
   </sheetData>
@@ -5142,10 +5552,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2">
-        <v>2720</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5219,7 +5629,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C21" s="2">
         <v>8056</v>
@@ -5230,10 +5640,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C22" s="2">
-        <v>3536</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5252,10 +5662,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1834</v>
+        <v>1844</v>
       </c>
       <c r="C24" s="2">
-        <v>20676</v>
+        <v>20662</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5263,10 +5673,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2">
-        <v>2682</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5274,10 +5684,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5296,10 +5706,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C28" s="2">
-        <v>12743</v>
+        <v>12792</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5307,10 +5717,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C29" s="2">
-        <v>10870</v>
+        <v>10867</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5329,10 +5739,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C31" s="2">
-        <v>1840</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5340,10 +5750,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C32" s="2">
-        <v>2218</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5384,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>10416</v>
+        <v>10440</v>
       </c>
       <c r="C36" s="2">
-        <v>104422</v>
+        <v>104480</v>
       </c>
     </row>
   </sheetData>
@@ -5548,10 +5958,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2">
-        <v>2320</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5625,7 +6035,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C21" s="2">
         <v>6701</v>
@@ -5636,7 +6046,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C22" s="2">
         <v>2843</v>
@@ -5658,10 +6068,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1597</v>
+        <v>1606</v>
       </c>
       <c r="C24" s="2">
-        <v>18605</v>
+        <v>18617</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5680,10 +6090,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5702,10 +6112,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C28" s="2">
-        <v>10282</v>
+        <v>10376</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5713,10 +6123,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C29" s="2">
-        <v>9632</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5735,7 +6145,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2">
         <v>1514</v>
@@ -5746,10 +6156,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5790,10 +6200,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8880</v>
+        <v>8901</v>
       </c>
       <c r="C36" s="2">
-        <v>89965</v>
+        <v>90063</v>
       </c>
     </row>
   </sheetData>
@@ -5954,7 +6364,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2">
         <v>2404</v>
@@ -6031,10 +6441,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C21" s="2">
-        <v>3952</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6042,7 +6452,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C22" s="2">
         <v>2126</v>
@@ -6064,10 +6474,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="C24" s="2">
-        <v>14776</v>
+        <v>14781</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6086,7 +6496,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
         <v>458</v>
@@ -6108,10 +6518,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C28" s="2">
-        <v>7198</v>
+        <v>7328</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6119,10 +6529,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C29" s="2">
-        <v>7595</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6196,10 +6606,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6143</v>
+        <v>6156</v>
       </c>
       <c r="C36" s="2">
-        <v>69230</v>
+        <v>69369</v>
       </c>
     </row>
   </sheetData>
@@ -6283,10 +6693,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6360,10 +6770,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2">
-        <v>1792</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6437,7 +6847,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C21" s="2">
         <v>3916</v>
@@ -6470,10 +6880,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="C24" s="2">
-        <v>16047</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6492,7 +6902,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2">
         <v>437</v>
@@ -6514,10 +6924,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C28" s="2">
-        <v>6591</v>
+        <v>6704</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6525,10 +6935,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="C29" s="2">
-        <v>7644</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6602,10 +7012,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6370</v>
+        <v>6427</v>
       </c>
       <c r="C36" s="2">
-        <v>68353</v>
+        <v>68466</v>
       </c>
     </row>
   </sheetData>
@@ -6618,7 +7028,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C36"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6689,7 +7099,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2">
         <v>1845</v>
@@ -6766,10 +7176,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
-        <v>2111</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6843,10 +7253,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C21" s="6">
-        <v>4452</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6854,10 +7264,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C22" s="2">
-        <v>2755</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6876,10 +7286,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="C24" s="6">
-        <v>21151</v>
+        <v>21159</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6898,7 +7308,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C26" s="6">
         <v>426</v>
@@ -6920,10 +7330,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C28" s="2">
-        <v>9112</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6931,10 +7341,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="C29" s="2">
-        <v>8387</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6953,7 +7363,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2">
         <v>1187</v>
@@ -6964,10 +7374,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -7008,10 +7418,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8081</v>
+        <v>8172</v>
       </c>
       <c r="C36" s="6">
-        <v>83145</v>
+        <v>83335</v>
       </c>
     </row>
   </sheetData>

--- a/KAE Ausz KonPe KTZH.xlsx
+++ b/KAE Ausz KonPe KTZH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="März 2020" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="Mai 2021" sheetId="15" r:id="rId15"/>
     <sheet name="Juni 2021" sheetId="16" r:id="rId16"/>
     <sheet name="Juli 2021" sheetId="17" r:id="rId17"/>
+    <sheet name="August 2021" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="57">
   <si>
     <t>Metriken</t>
   </si>
@@ -150,9 +151,6 @@
     <t>D 35: Energieversorgung</t>
   </si>
   <si>
-    <t>Rest: Wirtschaftszweige mit &lt;10 Betriebsabteilungen oder &lt;100 abgerechneten Arbeitnehmern (mit NA gekennzeichnet)</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -160,9 +158,6 @@
   </si>
   <si>
     <t>U: Übrige</t>
-  </si>
-  <si>
-    <t>Rest: Wirtschaftszweige mit &lt;10 Betriebsabteilungen oder &lt;100 abgerechneten Arbeitnehmern</t>
   </si>
   <si>
     <t>Mai 2020</t>
@@ -208,6 +203,15 @@
   </si>
   <si>
     <t>Juli 2021</t>
+  </si>
+  <si>
+    <t>August 2021</t>
+  </si>
+  <si>
+    <t>Wirtschaftszweige mit &lt;10 Betriebsabteilungen oder &lt;100 abgerechneten Arbeitnehmern werden aus Gründen des Datenschutzes anonymisiert dargestellt (NA)</t>
+  </si>
+  <si>
+    <t>Restliche Wirtschaftszweige</t>
   </si>
 </sst>
 </file>
@@ -538,11 +542,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -575,7 +577,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,10 +596,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,7 +607,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C7" s="2">
         <v>4463</v>
@@ -671,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2">
         <v>486</v>
@@ -693,10 +695,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -715,10 +717,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -726,10 +728,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -737,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C19" s="2">
         <v>3561</v>
@@ -762,7 +764,7 @@
         <v>1365</v>
       </c>
       <c r="C21" s="2">
-        <v>9979</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,10 +772,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C22" s="2">
-        <v>12028</v>
+        <v>12022</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3394</v>
+        <v>3404</v>
       </c>
       <c r="C24" s="2">
         <v>34231</v>
@@ -836,10 +838,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2560</v>
+        <v>2566</v>
       </c>
       <c r="C28" s="2">
-        <v>21183</v>
+        <v>21179</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -847,7 +849,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="C29" s="2">
         <v>23437</v>
@@ -858,10 +860,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,10 +871,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C31" s="2">
-        <v>6499</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,10 +882,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="C32" s="2">
-        <v>12374</v>
+        <v>12373</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,18 +893,18 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C33" s="2">
-        <v>9412</v>
+        <v>9410</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="C34" s="2">
         <v>6659</v>
@@ -910,13 +912,13 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,10 +926,15 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>20449</v>
+        <v>20479</v>
       </c>
       <c r="C36" s="2">
-        <v>176142</v>
+        <v>176093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +944,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -966,10 +973,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,7 +986,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -989,10 +996,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1000,10 +1007,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1011,10 +1018,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2">
-        <v>2685</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1044,10 +1051,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1055,10 +1062,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1077,10 +1084,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1099,10 +1106,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1121,10 +1128,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1132,10 +1139,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1143,10 +1150,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C19" s="2">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,10 +1161,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1165,10 +1172,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C21" s="2">
-        <v>4555</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1176,7 +1183,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C22" s="2">
         <v>3404</v>
@@ -1198,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2462</v>
+        <v>2470</v>
       </c>
       <c r="C24" s="2">
         <v>24764</v>
@@ -1242,10 +1249,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="C28" s="2">
-        <v>8488</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1253,10 +1260,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C29" s="2">
-        <v>8705</v>
+        <v>8717</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1264,10 +1271,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1275,10 +1282,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2">
-        <v>1443</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1297,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C33" s="2">
         <v>7100</v>
@@ -1305,35 +1312,40 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C34" s="2">
-        <v>2168</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8622</v>
+        <v>8647</v>
       </c>
       <c r="C36" s="2">
-        <v>90238</v>
+        <v>90221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -1372,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1385,7 +1397,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1406,10 +1418,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1417,10 +1429,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C7" s="2">
-        <v>3690</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1450,10 +1462,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1461,10 +1473,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1483,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1505,10 +1517,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1527,10 +1539,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1538,10 +1550,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1549,7 +1561,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C19" s="2">
         <v>2146</v>
@@ -1560,10 +1572,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C20" s="2">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,10 +1583,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C21" s="2">
-        <v>7644</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1594,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="C22" s="2">
-        <v>9086</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1593,10 +1605,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C23" s="2">
-        <v>14196</v>
+        <v>14195</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1604,10 +1616,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2759</v>
+        <v>2767</v>
       </c>
       <c r="C24" s="2">
-        <v>26123</v>
+        <v>26121</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1648,10 +1660,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1476</v>
+        <v>1486</v>
       </c>
       <c r="C28" s="2">
-        <v>16241</v>
+        <v>16231</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1659,10 +1671,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C29" s="2">
-        <v>10469</v>
+        <v>10473</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1670,10 +1682,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1681,10 +1693,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2">
-        <v>1922</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1703,7 +1715,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C33" s="2">
         <v>8889</v>
@@ -1711,35 +1723,40 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C34" s="2">
-        <v>2709</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11690</v>
+        <v>11735</v>
       </c>
       <c r="C36" s="2">
-        <v>117249</v>
+        <v>117244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -1778,10 +1795,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1791,7 +1808,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1812,10 +1829,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,7 +1840,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C7" s="2">
         <v>3740</v>
@@ -1845,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2">
         <v>1174</v>
@@ -1867,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1889,10 +1906,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1911,10 +1928,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1933,10 +1950,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1944,10 +1961,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1955,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C19" s="2">
         <v>2374</v>
@@ -1966,10 +1983,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C20" s="2">
-        <v>1756</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1977,10 +1994,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C21" s="2">
-        <v>8015</v>
+        <v>8107</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1988,10 +2005,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1453</v>
+        <v>1462</v>
       </c>
       <c r="C22" s="2">
-        <v>9407</v>
+        <v>9591</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1999,10 +2016,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C23" s="2">
-        <v>14573</v>
+        <v>14572</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2010,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2664</v>
+        <v>2673</v>
       </c>
       <c r="C24" s="2">
-        <v>25856</v>
+        <v>25862</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2054,10 +2071,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1486</v>
+        <v>1496</v>
       </c>
       <c r="C28" s="2">
-        <v>16586</v>
+        <v>16585</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2065,10 +2082,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C29" s="2">
-        <v>11157</v>
+        <v>11162</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2076,10 +2093,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2087,10 +2104,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2">
-        <v>2218</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2098,10 +2115,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,43 +2126,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C33" s="2">
-        <v>8530</v>
+        <v>8664</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C34" s="2">
-        <v>2866</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>12001</v>
+        <v>12056</v>
       </c>
       <c r="C36" s="2">
-        <v>119946</v>
+        <v>120350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2177,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -2184,10 +2206,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2197,7 +2219,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2218,10 +2240,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2229,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C7" s="2">
         <v>3552</v>
@@ -2251,7 +2273,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2">
         <v>1029</v>
@@ -2262,10 +2284,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2273,10 +2295,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2295,10 +2317,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2317,10 +2339,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2339,10 +2361,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2350,10 +2372,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2361,10 +2383,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C19" s="2">
-        <v>2215</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2372,10 +2394,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C20" s="2">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2383,10 +2405,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C21" s="2">
-        <v>6011</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2394,10 +2416,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C22" s="2">
-        <v>3967</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2405,10 +2427,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C23" s="2">
-        <v>15134</v>
+        <v>15133</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2416,10 +2438,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2476</v>
+        <v>2486</v>
       </c>
       <c r="C24" s="2">
-        <v>25048</v>
+        <v>25052</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2427,10 +2449,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2">
-        <v>1871</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2460,10 +2482,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="C28" s="2">
-        <v>10251</v>
+        <v>10254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2471,10 +2493,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C29" s="2">
-        <v>9609</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2482,10 +2504,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2493,10 +2515,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2">
-        <v>1927</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2504,10 +2526,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2515,43 +2537,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C33" s="2">
-        <v>8260</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C34" s="2">
         <v>2623</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>9597</v>
+        <v>9647</v>
       </c>
       <c r="C36" s="2">
-        <v>99957</v>
+        <v>100160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2588,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -2590,10 +2617,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2603,7 +2630,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2624,10 +2651,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2635,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2">
         <v>2687</v>
@@ -2646,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2657,10 +2684,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2">
-        <v>836</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2668,10 +2695,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2679,10 +2706,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2701,10 +2728,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2723,10 +2750,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2745,10 +2772,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2756,10 +2783,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2767,10 +2794,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C19" s="2">
-        <v>1715</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2778,10 +2805,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2789,10 +2816,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C21" s="2">
-        <v>5206</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2800,10 +2827,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C22" s="2">
-        <v>2928</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2811,10 +2838,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C23" s="2">
-        <v>13989</v>
+        <v>13997</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2822,10 +2849,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2333</v>
+        <v>2346</v>
       </c>
       <c r="C24" s="2">
-        <v>23808</v>
+        <v>23833</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2833,10 +2860,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2">
-        <v>1609</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2855,10 +2882,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2866,10 +2893,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>920</v>
+        <v>933</v>
       </c>
       <c r="C28" s="2">
-        <v>8498</v>
+        <v>8578</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2877,10 +2904,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C29" s="2">
-        <v>8977</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2888,10 +2915,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2899,10 +2926,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C31" s="2">
-        <v>1455</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2910,10 +2937,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C32" s="2">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2921,15 +2948,15 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C33" s="2">
-        <v>7343</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>461</v>
@@ -2939,25 +2966,30 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8392</v>
+        <v>8459</v>
       </c>
       <c r="C36" s="2">
-        <v>88064</v>
+        <v>88429</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2967,413 +2999,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>131</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>114</v>
-      </c>
-      <c r="C9" s="2">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>333</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>129</v>
-      </c>
-      <c r="C20" s="2">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <v>475</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <v>399</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>282</v>
-      </c>
-      <c r="C23" s="2">
-        <v>13333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2126</v>
-      </c>
-      <c r="C24" s="2">
-        <v>21731</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>139</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>85</v>
-      </c>
-      <c r="C26" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>69</v>
-      </c>
-      <c r="C27" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>811</v>
-      </c>
-      <c r="C28" s="2">
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>626</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7854</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>146</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2">
-        <v>176</v>
-      </c>
-      <c r="C32" s="2">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
-        <v>362</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3609</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2">
-        <v>396</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2">
-        <v>7065</v>
-      </c>
-      <c r="C36" s="2">
-        <v>73041</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -3402,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3415,7 +3041,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3425,10 +3051,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3436,10 +3062,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -3447,21 +3073,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2">
-        <v>1170</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
+      <c r="B8" s="2">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -3469,10 +3095,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2">
-        <v>845</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3480,10 +3106,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -3491,10 +3117,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -3502,10 +3128,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2">
-        <v>308</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3513,10 +3139,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2">
-        <v>231</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3524,10 +3150,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
-        <v>510</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3535,10 +3161,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -3546,10 +3172,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2">
-        <v>1151</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -3557,10 +3183,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3568,10 +3194,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3579,10 +3205,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>158</v>
+        <v>338</v>
       </c>
       <c r="C19" s="2">
-        <v>733</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3590,10 +3216,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2">
-        <v>185</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3601,10 +3227,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="C21" s="2">
-        <v>2605</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3612,10 +3238,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>238</v>
+        <v>403</v>
       </c>
       <c r="C22" s="2">
-        <v>1614</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3623,10 +3249,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="C23" s="2">
-        <v>11251</v>
+        <v>13336</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3634,10 +3260,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1118</v>
+        <v>2147</v>
       </c>
       <c r="C24" s="2">
-        <v>14104</v>
+        <v>21836</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3645,10 +3271,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2">
-        <v>1040</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3656,10 +3282,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3667,10 +3293,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2">
-        <v>221</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3678,10 +3304,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>542</v>
+        <v>824</v>
       </c>
       <c r="C28" s="2">
-        <v>4159</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3689,10 +3315,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>435</v>
+        <v>635</v>
       </c>
       <c r="C29" s="2">
-        <v>6007</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3700,10 +3326,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3711,10 +3337,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C31" s="2">
-        <v>689</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3722,10 +3348,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2">
-        <v>768</v>
+        <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3733,43 +3359,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>195</v>
+        <v>365</v>
       </c>
       <c r="C33" s="2">
-        <v>2196</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="C34" s="2">
-        <v>1296</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>4236</v>
+        <v>7147</v>
       </c>
       <c r="C36" s="2">
-        <v>51728</v>
+        <v>73353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3777,415 +3408,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>71</v>
-      </c>
-      <c r="C9" s="2">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>98</v>
-      </c>
-      <c r="C19" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2">
-        <v>197</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <v>123</v>
-      </c>
-      <c r="C22" s="2">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>110</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7627</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2">
-        <v>535</v>
-      </c>
-      <c r="C24" s="2">
-        <v>6971</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2">
-        <v>60</v>
-      </c>
-      <c r="C25" s="2">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2">
-        <v>18</v>
-      </c>
-      <c r="C26" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="2">
-        <v>323</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2">
-        <v>288</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="2">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2">
-        <v>69</v>
-      </c>
-      <c r="C32" s="2">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
-        <v>119</v>
-      </c>
-      <c r="C33" s="2">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2">
-        <v>126</v>
-      </c>
-      <c r="C34" s="2">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2370</v>
-      </c>
-      <c r="C36" s="2">
-        <v>25913</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -4213,32 +3438,34 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2">
-        <v>665</v>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4246,10 +3473,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4257,21 +3484,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
-        <v>5762</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>138</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2372</v>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4279,32 +3506,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2">
-        <v>1958</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2">
-        <v>492</v>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2">
-        <v>759</v>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4312,10 +3539,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2">
-        <v>2351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4323,10 +3550,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>241</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
-        <v>5734</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4334,21 +3561,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
-        <v>2939</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2">
-        <v>664</v>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4356,10 +3583,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
-        <v>3001</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4367,21 +3594,21 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2">
-        <v>291</v>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4389,10 +3616,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1405</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2">
-        <v>6975</v>
+        <v>753</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4400,10 +3627,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>1010</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2">
-        <v>5886</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4411,10 +3638,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>2039</v>
+        <v>326</v>
       </c>
       <c r="C21" s="2">
-        <v>19314</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4422,10 +3649,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>2201</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2">
-        <v>14201</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4433,10 +3660,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>761</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2">
-        <v>20193</v>
+        <v>11448</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4444,10 +3671,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3385</v>
+        <v>1150</v>
       </c>
       <c r="C24" s="2">
-        <v>36251</v>
+        <v>14198</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4455,10 +3682,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>585</v>
+        <v>109</v>
       </c>
       <c r="C25" s="2">
-        <v>5565</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4466,10 +3693,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>434</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
-        <v>1711</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4477,10 +3704,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="C27" s="2">
-        <v>1297</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4488,10 +3715,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3783</v>
+        <v>559</v>
       </c>
       <c r="C28" s="2">
-        <v>32950</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4499,10 +3726,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1881</v>
+        <v>449</v>
       </c>
       <c r="C29" s="2">
-        <v>31657</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4510,10 +3737,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4521,10 +3748,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>855</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2">
-        <v>8118</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4532,10 +3759,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2947</v>
+        <v>120</v>
       </c>
       <c r="C32" s="2">
-        <v>21935</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4543,43 +3770,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>927</v>
+        <v>209</v>
       </c>
       <c r="C33" s="2">
-        <v>11406</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>1735</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2">
-        <v>8432</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>26216</v>
+        <v>4367</v>
       </c>
       <c r="C36" s="2">
-        <v>252952</v>
+        <v>52808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4587,9 +3819,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -4618,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4631,7 +3863,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4640,11 +3872,11 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>56</v>
-      </c>
-      <c r="C5" s="2">
-        <v>271</v>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4652,10 +3884,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4663,21 +3895,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
-        <v>5355</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>124</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2269</v>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4685,43 +3917,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2">
-        <v>1963</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2">
-        <v>540</v>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2">
-        <v>701</v>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>224</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2987</v>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4729,10 +3961,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>274</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
-        <v>6680</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4740,21 +3972,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2">
-        <v>3514</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>709</v>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4762,10 +3994,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2">
-        <v>3220</v>
+        <v>999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4773,21 +4005,21 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2">
-        <v>231</v>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4795,10 +4027,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1218</v>
+        <v>111</v>
       </c>
       <c r="C19" s="2">
-        <v>5672</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4806,10 +4038,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>764</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
-        <v>4086</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4817,10 +4049,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1842</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2">
-        <v>17775</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4828,10 +4060,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1833</v>
+        <v>142</v>
       </c>
       <c r="C22" s="2">
-        <v>11681</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4839,10 +4071,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>714</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2">
-        <v>19454</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4850,10 +4082,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3133</v>
+        <v>648</v>
       </c>
       <c r="C24" s="2">
-        <v>34519</v>
+        <v>7835</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4861,10 +4093,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>569</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2">
-        <v>5562</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4872,10 +4104,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>427</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>1653</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4883,10 +4115,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
-        <v>1228</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4894,10 +4126,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3645</v>
+        <v>365</v>
       </c>
       <c r="C28" s="2">
-        <v>29506</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4905,10 +4137,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1722</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2">
-        <v>21102</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4916,10 +4148,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4927,10 +4159,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>761</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
-        <v>6882</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4938,10 +4170,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>1553</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2">
-        <v>10089</v>
+        <v>508</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4949,43 +4181,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>907</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2">
-        <v>10926</v>
+        <v>914</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>973</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2">
-        <v>5698</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>22226</v>
+        <v>2773</v>
       </c>
       <c r="C36" s="2">
-        <v>214349</v>
+        <v>30846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4993,9 +4230,420 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>87</v>
+      </c>
+      <c r="C19" s="2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>185</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>119</v>
+      </c>
+      <c r="C22" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2">
+        <v>10319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>473</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>271</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>278</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42</v>
+      </c>
+      <c r="C31" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>60</v>
+      </c>
+      <c r="C32" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>91</v>
+      </c>
+      <c r="C33" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>108</v>
+      </c>
+      <c r="C34" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2136</v>
+      </c>
+      <c r="C36" s="2">
+        <v>26548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -5023,34 +4671,32 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2">
-        <v>112</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,10 +4704,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5069,10 +4715,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="C7" s="2">
-        <v>3681</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5080,10 +4726,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2">
-        <v>485</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5091,10 +4737,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="C9" s="2">
-        <v>1542</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5102,10 +4748,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2">
-        <v>409</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5113,10 +4759,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2">
-        <v>463</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5124,10 +4770,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C12" s="2">
-        <v>2454</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5138,7 +4784,7 @@
         <v>242</v>
       </c>
       <c r="C13" s="2">
-        <v>5582</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5146,10 +4792,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2">
-        <v>2887</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5157,10 +4803,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>664</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5168,10 +4814,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="C16" s="2">
-        <v>2260</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5179,21 +4825,21 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
+      <c r="B18" s="2">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5201,10 +4847,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>790</v>
+        <v>1409</v>
       </c>
       <c r="C19" s="2">
-        <v>2699</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5212,10 +4858,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>422</v>
+        <v>1010</v>
       </c>
       <c r="C20" s="2">
-        <v>1473</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5223,10 +4869,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1192</v>
+        <v>2041</v>
       </c>
       <c r="C21" s="2">
-        <v>11198</v>
+        <v>19310</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5234,10 +4880,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>845</v>
+        <v>2202</v>
       </c>
       <c r="C22" s="2">
-        <v>5477</v>
+        <v>14194</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5245,10 +4891,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>526</v>
+        <v>761</v>
       </c>
       <c r="C23" s="2">
-        <v>29678</v>
+        <v>20193</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5256,10 +4902,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2319</v>
+        <v>3394</v>
       </c>
       <c r="C24" s="2">
-        <v>25449</v>
+        <v>36251</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5267,10 +4913,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>370</v>
+        <v>585</v>
       </c>
       <c r="C25" s="2">
-        <v>3751</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5278,10 +4924,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>255</v>
+        <v>434</v>
       </c>
       <c r="C26" s="2">
-        <v>880</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5289,10 +4935,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2">
-        <v>771</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5300,10 +4946,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2142</v>
+        <v>3789</v>
       </c>
       <c r="C28" s="2">
-        <v>17742</v>
+        <v>32931</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5311,10 +4957,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1215</v>
+        <v>1881</v>
       </c>
       <c r="C29" s="2">
-        <v>15386</v>
+        <v>31653</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5322,10 +4968,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5333,10 +4979,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>364</v>
+        <v>857</v>
       </c>
       <c r="C31" s="2">
-        <v>3401</v>
+        <v>8103</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5344,10 +4990,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>644</v>
+        <v>2948</v>
       </c>
       <c r="C32" s="2">
-        <v>4001</v>
+        <v>21939</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5355,43 +5001,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>531</v>
+        <v>928</v>
       </c>
       <c r="C33" s="2">
-        <v>5629</v>
+        <v>11403</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>681</v>
+        <v>1737</v>
       </c>
       <c r="C34" s="2">
-        <v>3491</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>13814</v>
+        <v>26248</v>
       </c>
       <c r="C36" s="2">
-        <v>151661</v>
+        <v>252859</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5399,9 +5050,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -5430,10 +5081,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5443,7 +5094,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5452,11 +5103,11 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
+      <c r="B5" s="2">
+        <v>56</v>
+      </c>
+      <c r="C5" s="2">
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5464,10 +5115,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5475,10 +5126,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>138</v>
+        <v>298</v>
       </c>
       <c r="C7" s="2">
-        <v>2658</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5486,10 +5137,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2">
-        <v>356</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5497,10 +5148,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="C9" s="2">
-        <v>1169</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5508,10 +5159,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2">
-        <v>282</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5519,10 +5170,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2">
-        <v>270</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5530,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="C12" s="2">
-        <v>1907</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5541,10 +5192,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="C13" s="2">
-        <v>3988</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5552,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2">
-        <v>2722</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5563,10 +5214,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>634</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5574,10 +5225,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="C16" s="2">
-        <v>1880</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5585,21 +5236,21 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
+      <c r="B18" s="2">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5607,10 +5258,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>608</v>
+        <v>1222</v>
       </c>
       <c r="C19" s="2">
-        <v>1790</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5618,10 +5269,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>322</v>
+        <v>764</v>
       </c>
       <c r="C20" s="2">
-        <v>835</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5629,10 +5280,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>896</v>
+        <v>1844</v>
       </c>
       <c r="C21" s="2">
-        <v>8056</v>
+        <v>17771</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5640,10 +5291,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>631</v>
+        <v>1834</v>
       </c>
       <c r="C22" s="2">
-        <v>3544</v>
+        <v>11674</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5651,10 +5302,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>451</v>
+        <v>715</v>
       </c>
       <c r="C23" s="2">
-        <v>16518</v>
+        <v>19454</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5662,10 +5313,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1844</v>
+        <v>3140</v>
       </c>
       <c r="C24" s="2">
-        <v>20662</v>
+        <v>34520</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5673,10 +5324,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>279</v>
+        <v>569</v>
       </c>
       <c r="C25" s="2">
-        <v>2699</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5684,10 +5335,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>202</v>
+        <v>427</v>
       </c>
       <c r="C26" s="2">
-        <v>620</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5695,10 +5346,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="C27" s="2">
-        <v>581</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5706,10 +5357,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1538</v>
+        <v>3651</v>
       </c>
       <c r="C28" s="2">
-        <v>12792</v>
+        <v>29501</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5717,10 +5368,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1031</v>
+        <v>1723</v>
       </c>
       <c r="C29" s="2">
-        <v>10867</v>
+        <v>21098</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5728,10 +5379,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5739,10 +5390,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>205</v>
+        <v>763</v>
       </c>
       <c r="C31" s="2">
-        <v>1852</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5750,10 +5401,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>415</v>
+        <v>1553</v>
       </c>
       <c r="C32" s="2">
-        <v>2217</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5761,43 +5412,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>346</v>
+        <v>908</v>
       </c>
       <c r="C33" s="2">
-        <v>2950</v>
+        <v>10923</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>518</v>
+        <v>975</v>
       </c>
       <c r="C34" s="2">
-        <v>2521</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>10440</v>
+        <v>22258</v>
       </c>
       <c r="C36" s="2">
-        <v>104480</v>
+        <v>214268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5805,9 +5461,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -5836,10 +5492,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5849,7 +5505,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5858,11 +5514,11 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5870,10 +5526,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5881,10 +5537,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2">
-        <v>1855</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5892,10 +5548,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2">
-        <v>311</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5903,10 +5559,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2">
-        <v>887</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5914,10 +5570,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2">
-        <v>251</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5925,10 +5581,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
-        <v>183</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5936,10 +5592,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2">
-        <v>1702</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -5947,10 +5603,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="C13" s="2">
-        <v>2743</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5958,21 +5614,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2">
-        <v>2326</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
+      <c r="B15" s="2">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2">
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5980,10 +5636,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2">
-        <v>1808</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5991,10 +5647,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6002,10 +5658,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6013,10 +5669,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>495</v>
+        <v>792</v>
       </c>
       <c r="C19" s="2">
-        <v>1481</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6024,10 +5680,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="C20" s="2">
-        <v>731</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6035,10 +5691,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>746</v>
+        <v>1194</v>
       </c>
       <c r="C21" s="2">
-        <v>6701</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6046,10 +5702,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>523</v>
+        <v>847</v>
       </c>
       <c r="C22" s="2">
-        <v>2843</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6057,10 +5713,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>390</v>
+        <v>526</v>
       </c>
       <c r="C23" s="2">
-        <v>16186</v>
+        <v>29678</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6068,10 +5724,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1606</v>
+        <v>2326</v>
       </c>
       <c r="C24" s="2">
-        <v>18617</v>
+        <v>25447</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6079,10 +5735,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>230</v>
+        <v>371</v>
       </c>
       <c r="C25" s="2">
-        <v>2352</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6090,10 +5746,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2">
-        <v>597</v>
+        <v>878</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6101,10 +5757,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="C27" s="2">
-        <v>499</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6112,10 +5768,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1294</v>
+        <v>2153</v>
       </c>
       <c r="C28" s="2">
-        <v>10376</v>
+        <v>17723</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6123,10 +5779,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>965</v>
+        <v>1218</v>
       </c>
       <c r="C29" s="2">
-        <v>9630</v>
+        <v>15379</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6134,10 +5790,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -6145,10 +5801,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>169</v>
+        <v>370</v>
       </c>
       <c r="C31" s="2">
-        <v>1514</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6156,10 +5812,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>340</v>
+        <v>644</v>
       </c>
       <c r="C32" s="2">
-        <v>1603</v>
+        <v>4001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -6167,43 +5823,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>298</v>
+        <v>533</v>
       </c>
       <c r="C33" s="2">
-        <v>2214</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>440</v>
+        <v>684</v>
       </c>
       <c r="C34" s="2">
-        <v>2040</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8901</v>
+        <v>13866</v>
       </c>
       <c r="C36" s="2">
-        <v>90063</v>
+        <v>151557</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6211,9 +5872,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -6242,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6255,7 +5916,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6265,10 +5926,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6276,10 +5937,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6287,10 +5948,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2">
-        <v>1523</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6298,10 +5959,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
-        <v>263</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -6309,10 +5970,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2">
-        <v>594</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6320,10 +5981,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
-        <v>186</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6331,10 +5992,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
-        <v>124</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6342,10 +6003,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2">
-        <v>1177</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6353,10 +6014,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2">
-        <v>1646</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6364,21 +6025,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2">
-        <v>2404</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
+      <c r="B15" s="2">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>578</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6386,10 +6047,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2">
-        <v>1561</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6397,10 +6058,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6408,10 +6069,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6419,10 +6080,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>278</v>
+        <v>610</v>
       </c>
       <c r="C19" s="2">
-        <v>943</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6430,10 +6091,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>146</v>
+        <v>324</v>
       </c>
       <c r="C20" s="2">
-        <v>384</v>
+        <v>832</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6441,10 +6102,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>505</v>
+        <v>896</v>
       </c>
       <c r="C21" s="2">
-        <v>3957</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6452,10 +6113,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>386</v>
+        <v>631</v>
       </c>
       <c r="C22" s="2">
-        <v>2126</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6463,10 +6124,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>321</v>
+        <v>451</v>
       </c>
       <c r="C23" s="2">
-        <v>15448</v>
+        <v>16518</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6474,10 +6135,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1203</v>
+        <v>1850</v>
       </c>
       <c r="C24" s="2">
-        <v>14781</v>
+        <v>20662</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6485,10 +6146,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2">
-        <v>1924</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6496,10 +6157,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="C26" s="2">
-        <v>458</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6507,10 +6168,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C27" s="2">
-        <v>197</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6518,10 +6179,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>885</v>
+        <v>1545</v>
       </c>
       <c r="C28" s="2">
-        <v>7328</v>
+        <v>12777</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6529,10 +6190,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>689</v>
+        <v>1033</v>
       </c>
       <c r="C29" s="2">
-        <v>7594</v>
+        <v>10864</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6540,21 +6201,21 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
+      <c r="B31" s="2">
+        <v>209</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1871</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6562,10 +6223,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>156</v>
+        <v>415</v>
       </c>
       <c r="C32" s="2">
-        <v>788</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -6573,43 +6234,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>144</v>
+        <v>349</v>
       </c>
       <c r="C33" s="2">
-        <v>1389</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C34" s="2">
-        <v>1313</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6156</v>
+        <v>10476</v>
       </c>
       <c r="C36" s="2">
-        <v>69369</v>
+        <v>104389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6617,9 +6283,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C36"/>
@@ -6648,10 +6314,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6661,7 +6327,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -6671,10 +6337,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6682,10 +6348,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6693,10 +6359,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2">
-        <v>1430</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6704,10 +6370,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -6715,10 +6381,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C9" s="2">
-        <v>591</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6726,21 +6392,21 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>119</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
+      <c r="B11" s="2">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6748,10 +6414,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="C12" s="2">
-        <v>1360</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6759,10 +6425,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="C13" s="2">
-        <v>1435</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6770,10 +6436,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2">
-        <v>1802</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6781,10 +6447,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6792,10 +6458,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2">
-        <v>1458</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6803,10 +6469,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6814,10 +6480,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6825,10 +6491,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>322</v>
+        <v>497</v>
       </c>
       <c r="C19" s="2">
-        <v>1119</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6836,10 +6502,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="C20" s="2">
-        <v>354</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6847,10 +6513,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>523</v>
+        <v>746</v>
       </c>
       <c r="C21" s="2">
-        <v>3916</v>
+        <v>6689</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6858,10 +6524,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>368</v>
+        <v>525</v>
       </c>
       <c r="C22" s="2">
-        <v>1838</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6869,10 +6535,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="C23" s="2">
-        <v>14590</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6880,10 +6546,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1368</v>
+        <v>1610</v>
       </c>
       <c r="C24" s="2">
-        <v>16044</v>
+        <v>18618</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6891,10 +6557,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2">
-        <v>1830</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6902,10 +6568,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2">
-        <v>437</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6913,10 +6579,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2">
-        <v>172</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6924,10 +6590,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>852</v>
+        <v>1298</v>
       </c>
       <c r="C28" s="2">
-        <v>6704</v>
+        <v>10363</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6935,10 +6601,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>678</v>
+        <v>967</v>
       </c>
       <c r="C29" s="2">
-        <v>7638</v>
+        <v>9627</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6946,10 +6612,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -6957,10 +6623,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2">
-        <v>918</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6968,10 +6634,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="C32" s="2">
-        <v>778</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -6979,43 +6645,48 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2">
-        <v>1563</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>612</v>
+        <v>441</v>
       </c>
       <c r="C34" s="2">
-        <v>1443</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6427</v>
+        <v>8930</v>
       </c>
       <c r="C36" s="2">
-        <v>68466</v>
+        <v>89965</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7023,12 +6694,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7054,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -7067,7 +6738,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7077,10 +6748,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -7088,10 +6759,10 @@
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -7099,10 +6770,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2">
-        <v>1845</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7110,10 +6781,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
-        <v>442</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -7121,10 +6792,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
-        <v>550</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -7132,10 +6803,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -7146,7 +6817,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -7154,10 +6825,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2">
-        <v>1238</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -7165,10 +6836,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2">
-        <v>1258</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -7176,10 +6847,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2">
-        <v>2123</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -7187,10 +6858,10 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -7198,10 +6869,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
-        <v>1483</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -7209,10 +6880,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -7220,10 +6891,10 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -7231,10 +6902,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="C19" s="2">
-        <v>1423</v>
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -7242,10 +6913,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2">
-        <v>485</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7253,10 +6924,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>601</v>
-      </c>
-      <c r="C21" s="6">
-        <v>4453</v>
+        <v>504</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3947</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7264,10 +6935,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>505</v>
+        <v>385</v>
       </c>
       <c r="C22" s="2">
-        <v>2837</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7275,10 +6946,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="C23" s="2">
-        <v>14481</v>
+        <v>15448</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7286,10 +6957,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2030</v>
-      </c>
-      <c r="C24" s="6">
-        <v>21159</v>
+        <v>1208</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14782</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7297,10 +6968,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2">
-        <v>1930</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -7308,10 +6979,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>110</v>
-      </c>
-      <c r="C26" s="6">
-        <v>426</v>
+        <v>96</v>
+      </c>
+      <c r="C26" s="2">
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -7319,10 +6990,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>254</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -7330,10 +7001,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1060</v>
+        <v>889</v>
       </c>
       <c r="C28" s="2">
-        <v>9197</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7341,10 +7012,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>742</v>
+        <v>690</v>
       </c>
       <c r="C29" s="2">
-        <v>8390</v>
+        <v>7593</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -7352,21 +7023,21 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2">
-        <v>114</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1187</v>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -7374,10 +7045,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C32" s="2">
-        <v>1131</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -7385,7 +7056,829 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>341</v>
+        <v>145</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>530</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6172</v>
+      </c>
+      <c r="C36" s="2">
+        <v>69291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>105</v>
+      </c>
+      <c r="C9" s="2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>324</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>138</v>
+      </c>
+      <c r="C20" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>522</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>366</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>326</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14590</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1373</v>
+      </c>
+      <c r="C24" s="2">
+        <v>16045</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>165</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>100</v>
+      </c>
+      <c r="C26" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>856</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>680</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>102</v>
+      </c>
+      <c r="C31" s="2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>149</v>
+      </c>
+      <c r="C32" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>144</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>612</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>6443</v>
+      </c>
+      <c r="C36" s="2">
+        <v>68463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>394</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>169</v>
+      </c>
+      <c r="C20" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>603</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>507</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>344</v>
+      </c>
+      <c r="C23" s="2">
+        <v>14481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2038</v>
+      </c>
+      <c r="C24" s="6">
+        <v>21162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>189</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2">
+        <v>110</v>
+      </c>
+      <c r="C26" s="6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1065</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>743</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>115</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>124</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>343</v>
       </c>
       <c r="C33" s="2">
         <v>4224</v>
@@ -7393,7 +7886,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>771</v>
@@ -7403,25 +7896,30 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>36</v>
+      <c r="A35" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8172</v>
+        <v>8199</v>
       </c>
       <c r="C36" s="6">
-        <v>83335</v>
+        <v>83431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/KAE Ausz KonPe KTZH.xlsx
+++ b/KAE Ausz KonPe KTZH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="März 2020" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Juni 2021" sheetId="16" r:id="rId16"/>
     <sheet name="Juli 2021" sheetId="17" r:id="rId17"/>
     <sheet name="August 2021" sheetId="18" r:id="rId18"/>
+    <sheet name="September 2021" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="58">
   <si>
     <t>Metriken</t>
   </si>
@@ -212,6 +213,9 @@
   </si>
   <si>
     <t>Restliche Wirtschaftszweige</t>
+  </si>
+  <si>
+    <t>September 2021</t>
   </si>
 </sst>
 </file>
@@ -544,7 +548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -585,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2">
         <v>667</v>
@@ -739,7 +745,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C19" s="2">
         <v>3561</v>
@@ -761,10 +767,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="C21" s="2">
-        <v>9966</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,10 +778,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C22" s="2">
-        <v>12022</v>
+        <v>12018</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,10 +789,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C23" s="2">
-        <v>16048</v>
+        <v>16049</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,10 +800,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3404</v>
+        <v>3417</v>
       </c>
       <c r="C24" s="2">
-        <v>34231</v>
+        <v>34224</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,7 +822,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C26" s="2">
         <v>1236</v>
@@ -838,10 +844,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2566</v>
+        <v>2572</v>
       </c>
       <c r="C28" s="2">
-        <v>21179</v>
+        <v>21192</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,10 +855,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="C29" s="2">
-        <v>23437</v>
+        <v>23433</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,7 +888,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="C32" s="2">
         <v>12373</v>
@@ -893,7 +899,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C33" s="2">
         <v>9410</v>
@@ -926,10 +932,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>20479</v>
+        <v>20511</v>
       </c>
       <c r="C36" s="2">
-        <v>176093</v>
+        <v>176091</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1018,10 +1024,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2">
-        <v>2683</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1095,10 +1101,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2">
-        <v>1150</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1161,10 +1167,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1172,7 +1178,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C21" s="2">
         <v>4544</v>
@@ -1183,10 +1189,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C22" s="2">
-        <v>3404</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1205,10 +1211,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2470</v>
+        <v>2477</v>
       </c>
       <c r="C24" s="2">
-        <v>24764</v>
+        <v>24762</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1227,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2">
         <v>392</v>
@@ -1249,10 +1255,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C28" s="2">
-        <v>8479</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,10 +1266,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C29" s="2">
-        <v>8717</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,10 +1288,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C31" s="2">
-        <v>1435</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,10 +1310,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C33" s="2">
-        <v>7100</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1337,10 +1343,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8647</v>
+        <v>8675</v>
       </c>
       <c r="C36" s="2">
-        <v>90221</v>
+        <v>90277</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1561,10 +1567,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C19" s="2">
-        <v>2146</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1572,10 +1578,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C20" s="2">
-        <v>1400</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,7 +1589,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C21" s="2">
         <v>7637</v>
@@ -1594,10 +1600,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C22" s="2">
-        <v>9106</v>
+        <v>9109</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1605,7 +1611,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C23" s="2">
         <v>14195</v>
@@ -1616,10 +1622,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2767</v>
+        <v>2777</v>
       </c>
       <c r="C24" s="2">
-        <v>26121</v>
+        <v>26122</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1660,10 +1666,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1486</v>
+        <v>1495</v>
       </c>
       <c r="C28" s="2">
-        <v>16231</v>
+        <v>16499</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1671,10 +1677,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C29" s="2">
-        <v>10473</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1715,10 +1721,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C33" s="2">
-        <v>8889</v>
+        <v>8887</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1726,10 +1732,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C34" s="2">
-        <v>2713</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1748,10 +1754,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11735</v>
+        <v>11772</v>
       </c>
       <c r="C36" s="2">
-        <v>117244</v>
+        <v>117552</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1862,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2">
         <v>1174</v>
@@ -1972,10 +1978,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C19" s="2">
-        <v>2374</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1983,10 +1989,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C20" s="2">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1994,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C21" s="2">
         <v>8107</v>
@@ -2005,10 +2011,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="C22" s="2">
-        <v>9591</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2016,7 +2022,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C23" s="2">
         <v>14572</v>
@@ -2027,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2673</v>
+        <v>2685</v>
       </c>
       <c r="C24" s="2">
-        <v>25862</v>
+        <v>25874</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2071,10 +2077,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="C28" s="2">
-        <v>16585</v>
+        <v>16603</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2082,10 +2088,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C29" s="2">
-        <v>11162</v>
+        <v>11147</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,10 +2132,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C33" s="2">
-        <v>8664</v>
+        <v>8663</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2137,10 +2143,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C34" s="2">
-        <v>2875</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2159,10 +2165,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>12056</v>
+        <v>12095</v>
       </c>
       <c r="C36" s="2">
-        <v>120350</v>
+        <v>120403</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,10 +2257,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2">
-        <v>3552</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2273,7 +2279,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2">
         <v>1029</v>
@@ -2383,10 +2389,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C19" s="2">
-        <v>2221</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2394,10 +2400,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C20" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2405,7 +2411,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C21" s="2">
         <v>6025</v>
@@ -2416,10 +2422,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C22" s="2">
-        <v>4012</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2427,7 +2433,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C23" s="2">
         <v>15133</v>
@@ -2438,10 +2444,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2486</v>
+        <v>2496</v>
       </c>
       <c r="C24" s="2">
-        <v>25052</v>
+        <v>25045</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2471,10 +2477,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2482,10 +2488,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C28" s="2">
-        <v>10254</v>
+        <v>10257</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2493,10 +2499,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C29" s="2">
-        <v>9615</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2515,10 +2521,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="2">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2526,10 +2532,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2">
-        <v>1745</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2537,10 +2543,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="C33" s="2">
-        <v>8301</v>
+        <v>8299</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2548,10 +2554,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C34" s="2">
-        <v>2623</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2570,10 +2576,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>9647</v>
+        <v>9681</v>
       </c>
       <c r="C36" s="2">
-        <v>100160</v>
+        <v>100178</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,10 +2668,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C7" s="2">
-        <v>2687</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,7 +2690,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2">
         <v>982</v>
@@ -2805,10 +2811,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,10 +2822,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C21" s="2">
-        <v>5207</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2827,10 +2833,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C22" s="2">
-        <v>2956</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,10 +2844,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2">
-        <v>13997</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2849,10 +2855,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2346</v>
+        <v>2358</v>
       </c>
       <c r="C24" s="2">
-        <v>23833</v>
+        <v>23840</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2860,10 +2866,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C25" s="2">
-        <v>1646</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,10 +2877,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2882,7 +2888,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2">
         <v>430</v>
@@ -2893,10 +2899,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C28" s="2">
-        <v>8578</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2904,10 +2910,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C29" s="2">
-        <v>8980</v>
+        <v>8965</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,10 +2932,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C31" s="2">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,10 +2954,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C33" s="2">
-        <v>7380</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,10 +2965,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C34" s="2">
-        <v>2258</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2981,10 +2987,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8459</v>
+        <v>8510</v>
       </c>
       <c r="C36" s="2">
-        <v>88429</v>
+        <v>88884</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3095,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2">
-        <v>759</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3216,10 +3222,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3227,10 +3233,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C21" s="2">
-        <v>4353</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3238,10 +3244,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C22" s="2">
-        <v>2244</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3249,7 +3255,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C23" s="2">
         <v>13336</v>
@@ -3260,7 +3266,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2147</v>
+        <v>2152</v>
       </c>
       <c r="C24" s="2">
         <v>21836</v>
@@ -3271,10 +3277,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C25" s="2">
-        <v>1540</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3282,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2">
         <v>313</v>
@@ -3293,7 +3299,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C27" s="2">
         <v>374</v>
@@ -3304,10 +3310,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C28" s="2">
-        <v>6018</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3315,10 +3321,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="C29" s="2">
-        <v>7898</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3337,7 +3343,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" s="2">
         <v>1134</v>
@@ -3348,10 +3354,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C32" s="2">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3359,10 +3365,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C33" s="2">
-        <v>3643</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3370,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C34" s="2">
         <v>1947</v>
@@ -3392,10 +3398,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>7147</v>
+        <v>7186</v>
       </c>
       <c r="C36" s="2">
-        <v>73353</v>
+        <v>73873</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,7 +3490,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2">
         <v>1221</v>
@@ -3506,7 +3512,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2">
         <v>846</v>
@@ -3550,10 +3556,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
-        <v>231</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3616,10 +3622,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2">
-        <v>753</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,10 +3633,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,10 +3644,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C21" s="2">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,10 +3655,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2">
-        <v>1642</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,10 +3666,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2">
-        <v>11448</v>
+        <v>12934</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3671,10 +3677,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1150</v>
+        <v>1166</v>
       </c>
       <c r="C24" s="2">
-        <v>14198</v>
+        <v>14270</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3682,10 +3688,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2">
-        <v>1301</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3693,10 +3699,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,10 +3721,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C28" s="2">
-        <v>4222</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,10 +3732,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C29" s="2">
-        <v>6056</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,10 +3754,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,10 +3765,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +3776,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C33" s="2">
-        <v>2428</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +3787,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2">
-        <v>1338</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,10 +3809,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>4367</v>
+        <v>4433</v>
       </c>
       <c r="C36" s="2">
-        <v>52808</v>
+        <v>54733</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3895,10 +3901,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
-        <v>419</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3917,10 +3923,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3961,10 +3967,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4027,10 +4033,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4038,10 +4044,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4049,10 +4055,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2">
-        <v>1451</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4060,10 +4066,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2">
-        <v>603</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4071,10 +4077,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C23" s="2">
-        <v>9406</v>
+        <v>11121</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4082,10 +4088,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="C24" s="2">
-        <v>7835</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4093,10 +4099,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4126,10 +4132,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="C28" s="2">
-        <v>2109</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4137,10 +4143,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="C29" s="2">
-        <v>2811</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4159,10 +4165,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2">
-        <v>205</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4170,10 +4176,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4181,10 +4187,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2">
-        <v>914</v>
+        <v>985</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4192,10 +4198,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2">
-        <v>706</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4214,10 +4220,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>2773</v>
+        <v>2944</v>
       </c>
       <c r="C36" s="2">
-        <v>30846</v>
+        <v>35582</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4234,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4306,10 +4312,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
-        <v>156</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4328,10 +4334,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4372,10 +4378,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4405,10 +4411,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4438,10 +4444,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4449,10 +4455,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4460,10 +4466,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2">
-        <v>1016</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4471,10 +4477,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4482,10 +4488,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2">
-        <v>10319</v>
+        <v>9274</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4493,10 +4499,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="C24" s="2">
-        <v>5739</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4504,10 +4510,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2">
-        <v>394</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4537,10 +4543,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C28" s="2">
-        <v>1470</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4548,10 +4554,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C29" s="2">
-        <v>2722</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4570,10 +4576,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2">
-        <v>280</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4581,10 +4587,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4592,10 +4598,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2">
-        <v>587</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4603,10 +4609,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2">
-        <v>535</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4625,10 +4631,421 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>2136</v>
+        <v>2341</v>
       </c>
       <c r="C36" s="2">
-        <v>26548</v>
+        <v>28355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>156</v>
+      </c>
+      <c r="C21" s="2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>98</v>
+      </c>
+      <c r="C22" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>463</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>223</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>258</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>83</v>
+      </c>
+      <c r="C33" s="2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>108</v>
+      </c>
+      <c r="C34" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1937</v>
+      </c>
+      <c r="C36" s="2">
+        <v>19445</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4715,7 +5132,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C7" s="2">
         <v>5762</v>
@@ -4847,10 +5264,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="C19" s="2">
-        <v>6975</v>
+        <v>6972</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4869,7 +5286,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="C21" s="2">
         <v>19310</v>
@@ -4880,10 +5297,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="C22" s="2">
-        <v>14194</v>
+        <v>14190</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4891,7 +5308,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C23" s="2">
         <v>20193</v>
@@ -4902,10 +5319,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3394</v>
+        <v>3406</v>
       </c>
       <c r="C24" s="2">
-        <v>36251</v>
+        <v>36250</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4924,7 +5341,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C26" s="2">
         <v>1711</v>
@@ -4935,7 +5352,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C27" s="2">
         <v>1297</v>
@@ -4946,10 +5363,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3789</v>
+        <v>3795</v>
       </c>
       <c r="C28" s="2">
-        <v>32931</v>
+        <v>32942</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4957,10 +5374,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="C29" s="2">
-        <v>31653</v>
+        <v>31650</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5001,7 +5418,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C33" s="2">
         <v>11403</v>
@@ -5034,7 +5451,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>26248</v>
+        <v>26281</v>
       </c>
       <c r="C36" s="2">
         <v>252859</v>
@@ -5225,10 +5642,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C16" s="2">
-        <v>3220</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5258,10 +5675,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="2">
-        <v>5672</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5280,7 +5697,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="C21" s="2">
         <v>17771</v>
@@ -5291,10 +5708,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C22" s="2">
-        <v>11674</v>
+        <v>11670</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5302,7 +5719,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="C23" s="2">
         <v>19454</v>
@@ -5313,7 +5730,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3140</v>
+        <v>3150</v>
       </c>
       <c r="C24" s="2">
         <v>34520</v>
@@ -5335,7 +5752,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C26" s="2">
         <v>1653</v>
@@ -5346,7 +5763,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27" s="2">
         <v>1228</v>
@@ -5357,10 +5774,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3651</v>
+        <v>3659</v>
       </c>
       <c r="C28" s="2">
-        <v>29501</v>
+        <v>29510</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5368,10 +5785,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="C29" s="2">
-        <v>21098</v>
+        <v>21094</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5412,7 +5829,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="C33" s="2">
         <v>10923</v>
@@ -5445,10 +5862,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>22258</v>
+        <v>22294</v>
       </c>
       <c r="C36" s="2">
-        <v>214268</v>
+        <v>214270</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5559,10 +5976,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5636,10 +6053,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5669,10 +6086,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C19" s="2">
-        <v>2699</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5691,10 +6108,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="C21" s="2">
-        <v>11196</v>
+        <v>11192</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5702,10 +6119,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C22" s="2">
-        <v>5472</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5713,10 +6130,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C23" s="2">
-        <v>29678</v>
+        <v>29673</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5724,10 +6141,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2326</v>
+        <v>2334</v>
       </c>
       <c r="C24" s="2">
-        <v>25447</v>
+        <v>25441</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5735,10 +6152,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C25" s="2">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5746,10 +6163,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5768,10 +6185,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2153</v>
+        <v>2174</v>
       </c>
       <c r="C28" s="2">
-        <v>17723</v>
+        <v>17677</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5779,10 +6196,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="C29" s="2">
-        <v>15379</v>
+        <v>15376</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5823,10 +6240,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C33" s="2">
-        <v>5625</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5834,10 +6251,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C34" s="2">
-        <v>3488</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5856,10 +6273,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>13866</v>
+        <v>13923</v>
       </c>
       <c r="C36" s="2">
-        <v>151557</v>
+        <v>151470</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5948,10 +6365,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2">
-        <v>2658</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5970,10 +6387,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6047,10 +6464,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6080,10 +6497,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C19" s="2">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6102,10 +6519,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C21" s="2">
-        <v>8043</v>
+        <v>8041</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6113,10 +6530,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C22" s="2">
-        <v>3540</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6124,10 +6541,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C23" s="2">
-        <v>16518</v>
+        <v>16516</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6135,10 +6552,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1850</v>
+        <v>1858</v>
       </c>
       <c r="C24" s="2">
-        <v>20662</v>
+        <v>20657</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6146,10 +6563,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6157,10 +6574,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6179,10 +6596,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1545</v>
+        <v>1558</v>
       </c>
       <c r="C28" s="2">
-        <v>12777</v>
+        <v>12772</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6190,7 +6607,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C29" s="2">
         <v>10864</v>
@@ -6234,10 +6651,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C33" s="2">
-        <v>2946</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6245,10 +6662,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C34" s="2">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6267,10 +6684,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>10476</v>
+        <v>10516</v>
       </c>
       <c r="C36" s="2">
-        <v>104389</v>
+        <v>104355</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6458,10 +6875,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6491,10 +6908,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C19" s="2">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6513,10 +6930,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C21" s="2">
-        <v>6689</v>
+        <v>6687</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6524,10 +6941,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C22" s="2">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6535,10 +6952,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C23" s="2">
-        <v>16186</v>
+        <v>16184</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6546,10 +6963,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="C24" s="2">
-        <v>18618</v>
+        <v>18617</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6568,10 +6985,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6590,10 +7007,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1298</v>
+        <v>1309</v>
       </c>
       <c r="C28" s="2">
-        <v>10363</v>
+        <v>10359</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6601,7 +7018,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C29" s="2">
         <v>9627</v>
@@ -6645,10 +7062,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2">
-        <v>2214</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6656,10 +7073,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C34" s="2">
-        <v>2039</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6678,10 +7095,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8930</v>
+        <v>8961</v>
       </c>
       <c r="C36" s="2">
-        <v>89965</v>
+        <v>89940</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6924,7 +7341,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C21" s="2">
         <v>3947</v>
@@ -6957,7 +7374,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="C24" s="2">
         <v>14782</v>
@@ -7001,10 +7418,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="C28" s="2">
-        <v>7321</v>
+        <v>7327</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7012,7 +7429,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C29" s="2">
         <v>7593</v>
@@ -7056,10 +7473,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7089,10 +7506,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6172</v>
+        <v>6186</v>
       </c>
       <c r="C36" s="2">
-        <v>69291</v>
+        <v>69296</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7324,10 +7741,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7335,7 +7752,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C21" s="2">
         <v>3907</v>
@@ -7368,10 +7785,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="C24" s="2">
-        <v>16045</v>
+        <v>16047</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7412,10 +7829,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C28" s="2">
-        <v>6696</v>
+        <v>6702</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7423,7 +7840,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C29" s="2">
         <v>7637</v>
@@ -7467,10 +7884,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C33" s="2">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7500,10 +7917,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6443</v>
+        <v>6457</v>
       </c>
       <c r="C36" s="2">
-        <v>68463</v>
+        <v>68471</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7735,10 +8152,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7746,10 +8163,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C21" s="6">
-        <v>4566</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7779,10 +8196,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="C24" s="6">
-        <v>21162</v>
+        <v>21169</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7823,10 +8240,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="C28" s="2">
-        <v>9187</v>
+        <v>9195</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7834,7 +8251,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C29" s="2">
         <v>8389</v>
@@ -7878,10 +8295,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C33" s="2">
-        <v>4224</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7911,10 +8328,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8199</v>
+        <v>8217</v>
       </c>
       <c r="C36" s="6">
-        <v>83431</v>
+        <v>83446</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">

--- a/KAE Ausz KonPe KTZH.xlsx
+++ b/KAE Ausz KonPe KTZH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="16" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="März 2020" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Juli 2021" sheetId="17" r:id="rId17"/>
     <sheet name="August 2021" sheetId="18" r:id="rId18"/>
     <sheet name="September 2021" sheetId="19" r:id="rId19"/>
+    <sheet name="Oktober 2021" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="59">
   <si>
     <t>Metriken</t>
   </si>
@@ -216,6 +217,9 @@
   </si>
   <si>
     <t>September 2021</t>
+  </si>
+  <si>
+    <t>Oktober 2021</t>
   </si>
 </sst>
 </file>
@@ -635,10 +639,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,10 +749,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C19" s="2">
-        <v>3561</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,10 +760,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C20" s="2">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,10 +771,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="C21" s="2">
-        <v>9965</v>
+        <v>9960</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -778,10 +782,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="C22" s="2">
-        <v>12018</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -789,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C23" s="2">
         <v>16049</v>
@@ -800,10 +804,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3417</v>
+        <v>3427</v>
       </c>
       <c r="C24" s="2">
-        <v>34224</v>
+        <v>34222</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -833,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C27" s="2">
         <v>898</v>
@@ -844,10 +848,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2572</v>
+        <v>2577</v>
       </c>
       <c r="C28" s="2">
-        <v>21192</v>
+        <v>21185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -855,10 +859,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="C29" s="2">
-        <v>23433</v>
+        <v>23430</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -877,7 +881,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C31" s="2">
         <v>6476</v>
@@ -888,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="C32" s="2">
         <v>12373</v>
@@ -899,7 +903,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C33" s="2">
         <v>9410</v>
@@ -910,7 +914,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C34" s="2">
         <v>6659</v>
@@ -932,10 +936,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>20511</v>
+        <v>20554</v>
       </c>
       <c r="C36" s="2">
-        <v>176091</v>
+        <v>176077</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,7 +1050,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2">
         <v>511</v>
@@ -1178,10 +1182,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C21" s="2">
-        <v>4544</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,10 +1193,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C22" s="2">
-        <v>3407</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,10 +1204,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C23" s="2">
-        <v>14668</v>
+        <v>14666</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1211,10 +1215,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2477</v>
+        <v>2486</v>
       </c>
       <c r="C24" s="2">
-        <v>24762</v>
+        <v>24757</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1233,10 +1237,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,10 +1248,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1255,7 +1259,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C28" s="2">
         <v>8487</v>
@@ -1266,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C29" s="2">
         <v>8716</v>
@@ -1288,10 +1292,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="2">
-        <v>1443</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,10 +1303,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C33" s="2">
         <v>7098</v>
@@ -1321,7 +1325,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C34" s="2">
         <v>2172</v>
@@ -1343,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8675</v>
+        <v>8700</v>
       </c>
       <c r="C36" s="2">
-        <v>90277</v>
+        <v>90300</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1457,10 +1461,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,10 +1571,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C19" s="2">
-        <v>2150</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C20" s="2">
         <v>1407</v>
@@ -1589,10 +1593,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C21" s="2">
-        <v>7637</v>
+        <v>7647</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,10 +1604,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="C22" s="2">
-        <v>9109</v>
+        <v>9108</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,10 +1615,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C23" s="2">
-        <v>14195</v>
+        <v>14193</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1626,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2777</v>
+        <v>2789</v>
       </c>
       <c r="C24" s="2">
-        <v>26122</v>
+        <v>26126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,7 +1670,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C28" s="2">
         <v>16499</v>
@@ -1677,10 +1681,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C29" s="2">
-        <v>10504</v>
+        <v>10507</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1699,10 +1703,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2">
-        <v>1909</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C33" s="2">
         <v>8887</v>
@@ -1754,10 +1758,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11772</v>
+        <v>11802</v>
       </c>
       <c r="C36" s="2">
-        <v>117552</v>
+        <v>117575</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1879,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>103</v>
@@ -1989,10 +1993,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C20" s="2">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2000,10 +2004,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C21" s="2">
-        <v>8107</v>
+        <v>8114</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2011,10 +2015,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C22" s="2">
-        <v>9622</v>
+        <v>9626</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2022,10 +2026,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C23" s="2">
-        <v>14572</v>
+        <v>14568</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2033,10 +2037,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="C24" s="2">
-        <v>25874</v>
+        <v>25877</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2066,10 +2070,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C27" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2077,7 +2081,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="C28" s="2">
         <v>16603</v>
@@ -2088,7 +2092,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C29" s="2">
         <v>11147</v>
@@ -2110,7 +2114,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2">
         <v>2183</v>
@@ -2132,7 +2136,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C33" s="2">
         <v>8663</v>
@@ -2165,10 +2169,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>12095</v>
+        <v>12123</v>
       </c>
       <c r="C36" s="2">
-        <v>120403</v>
+        <v>120411</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2411,10 +2415,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C21" s="2">
-        <v>6025</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2433,10 +2437,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C23" s="2">
-        <v>15133</v>
+        <v>15131</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2444,7 +2448,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2496</v>
+        <v>2505</v>
       </c>
       <c r="C24" s="2">
         <v>25045</v>
@@ -2455,10 +2459,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2">
-        <v>1980</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2477,10 +2481,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,10 +2492,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C28" s="2">
-        <v>10257</v>
+        <v>10255</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,10 +2503,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="C29" s="2">
-        <v>9614</v>
+        <v>9616</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2576,10 +2580,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>9681</v>
+        <v>9700</v>
       </c>
       <c r="C36" s="2">
-        <v>100178</v>
+        <v>100200</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2668,10 +2672,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2">
-        <v>2691</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2690,10 +2694,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2">
-        <v>982</v>
+        <v>969</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2811,10 +2815,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2822,10 +2826,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C21" s="2">
-        <v>5206</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2833,10 +2837,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C22" s="2">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2844,10 +2848,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C23" s="2">
-        <v>14050</v>
+        <v>14048</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2855,7 +2859,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2358</v>
+        <v>2367</v>
       </c>
       <c r="C24" s="2">
         <v>23840</v>
@@ -2866,10 +2870,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2">
-        <v>1650</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2877,10 +2881,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2888,10 +2892,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2899,10 +2903,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C28" s="2">
-        <v>8581</v>
+        <v>8582</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2910,10 +2914,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="C29" s="2">
-        <v>8965</v>
+        <v>8967</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2954,10 +2958,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C33" s="2">
-        <v>7770</v>
+        <v>7783</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2987,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8510</v>
+        <v>8539</v>
       </c>
       <c r="C36" s="2">
-        <v>88884</v>
+        <v>89035</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3079,10 +3083,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2">
-        <v>2033</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3222,10 +3226,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3233,10 +3237,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="C21" s="2">
-        <v>4352</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3244,10 +3248,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C22" s="2">
-        <v>2304</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3255,10 +3259,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C23" s="2">
-        <v>13336</v>
+        <v>13334</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3266,10 +3270,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2152</v>
+        <v>2162</v>
       </c>
       <c r="C24" s="2">
-        <v>21836</v>
+        <v>21861</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3299,10 +3303,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3310,10 +3314,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C28" s="2">
-        <v>6022</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3321,7 +3325,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C29" s="2">
         <v>8195</v>
@@ -3354,7 +3358,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="2">
         <v>996</v>
@@ -3365,10 +3369,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C33" s="2">
-        <v>3652</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3398,10 +3402,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>7186</v>
+        <v>7219</v>
       </c>
       <c r="C36" s="2">
-        <v>73873</v>
+        <v>73944</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3633,10 +3637,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3644,10 +3648,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C21" s="2">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3655,10 +3659,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C22" s="2">
-        <v>1646</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3666,10 +3670,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2">
-        <v>12934</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3677,10 +3681,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1166</v>
+        <v>1177</v>
       </c>
       <c r="C24" s="2">
-        <v>14270</v>
+        <v>14319</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3699,10 +3703,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3710,10 +3714,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3721,10 +3725,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C28" s="2">
-        <v>4249</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3732,10 +3736,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C29" s="2">
-        <v>6281</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3754,10 +3758,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3765,10 +3769,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3776,10 +3780,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C33" s="2">
-        <v>2445</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3787,10 +3791,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C34" s="2">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3809,10 +3813,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>4433</v>
+        <v>4474</v>
       </c>
       <c r="C36" s="2">
-        <v>54733</v>
+        <v>54930</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3923,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -3967,10 +3971,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4044,10 +4048,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4055,10 +4059,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C21" s="2">
-        <v>1656</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4066,10 +4070,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2">
-        <v>625</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4077,10 +4081,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C23" s="2">
-        <v>11121</v>
+        <v>11303</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4088,10 +4092,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="C24" s="2">
-        <v>8642</v>
+        <v>8677</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4099,10 +4103,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4110,10 +4114,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4121,10 +4125,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4132,10 +4136,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C28" s="2">
-        <v>2317</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4143,10 +4147,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C29" s="2">
-        <v>3686</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4176,10 +4180,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4187,7 +4191,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C33" s="2">
         <v>985</v>
@@ -4198,10 +4202,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2">
-        <v>748</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4220,10 +4224,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>2944</v>
+        <v>3012</v>
       </c>
       <c r="C36" s="2">
-        <v>35582</v>
+        <v>36296</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4312,10 +4316,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
-        <v>742</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4334,10 +4338,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4378,10 +4382,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4389,10 +4393,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4444,10 +4448,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4455,10 +4459,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4466,10 +4470,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2">
-        <v>1230</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4477,10 +4481,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4488,10 +4492,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C23" s="2">
-        <v>9274</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4499,10 +4503,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="C24" s="2">
-        <v>6668</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4510,10 +4514,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4543,10 +4547,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2">
-        <v>1788</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4554,10 +4558,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C29" s="2">
-        <v>3027</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4576,10 +4580,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4587,7 +4591,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2">
         <v>337</v>
@@ -4598,10 +4602,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C33" s="2">
-        <v>777</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4609,10 +4613,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2">
-        <v>570</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4631,10 +4635,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>2341</v>
+        <v>2415</v>
       </c>
       <c r="C36" s="2">
-        <v>28355</v>
+        <v>30190</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4652,7 +4656,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4723,7 +4727,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>123</v>
@@ -4745,10 +4749,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4789,10 +4793,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4800,10 +4804,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4822,10 +4826,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4855,10 +4859,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4866,10 +4870,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4877,10 +4881,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2">
-        <v>916</v>
+        <v>928</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4888,10 +4892,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2">
-        <v>268</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4899,10 +4903,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2">
-        <v>6762</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4910,10 +4914,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="C24" s="2">
-        <v>3258</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4921,10 +4925,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4954,10 +4958,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2">
-        <v>1087</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4965,10 +4969,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2">
-        <v>2621</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4987,10 +4991,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4998,10 +5002,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5009,10 +5013,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C33" s="2">
-        <v>531</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5020,10 +5024,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C34" s="2">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5042,10 +5046,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>1937</v>
+        <v>2041</v>
       </c>
       <c r="C36" s="2">
-        <v>19445</v>
+        <v>24867</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5132,7 +5136,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C7" s="2">
         <v>5762</v>
@@ -5154,10 +5158,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9" s="2">
-        <v>1958</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5209,7 +5213,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2">
         <v>2953</v>
@@ -5264,10 +5268,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C19" s="2">
-        <v>6972</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5275,10 +5279,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C20" s="2">
-        <v>5886</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5286,10 +5290,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="C21" s="2">
-        <v>19310</v>
+        <v>19308</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5297,10 +5301,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>2201</v>
+        <v>2209</v>
       </c>
       <c r="C22" s="2">
-        <v>14190</v>
+        <v>14189</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5308,10 +5312,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C23" s="2">
-        <v>20193</v>
+        <v>20178</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5319,10 +5323,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3406</v>
+        <v>3416</v>
       </c>
       <c r="C24" s="2">
-        <v>36250</v>
+        <v>36249</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5363,10 +5367,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3795</v>
+        <v>3800</v>
       </c>
       <c r="C28" s="2">
-        <v>32942</v>
+        <v>32935</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5374,10 +5378,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="C29" s="2">
-        <v>31650</v>
+        <v>31647</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5396,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C31" s="2">
         <v>8103</v>
@@ -5407,7 +5411,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="C32" s="2">
         <v>21939</v>
@@ -5418,7 +5422,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C33" s="2">
         <v>11403</v>
@@ -5429,10 +5433,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="C34" s="2">
-        <v>8434</v>
+        <v>8436</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5451,10 +5455,421 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>26281</v>
+        <v>26332</v>
       </c>
       <c r="C36" s="2">
-        <v>252859</v>
+        <v>252832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>138</v>
+      </c>
+      <c r="C21" s="2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>458</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>197</v>
+      </c>
+      <c r="C28" s="2">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>241</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1787</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20623</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5543,7 +5958,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C7" s="2">
         <v>5355</v>
@@ -5565,10 +5980,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C9" s="2">
-        <v>1963</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5576,7 +5991,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2">
         <v>540</v>
@@ -5620,7 +6035,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C14" s="2">
         <v>3527</v>
@@ -5675,10 +6090,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C19" s="2">
-        <v>5671</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5686,10 +6101,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C20" s="2">
-        <v>4086</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -5697,10 +6112,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="C21" s="2">
-        <v>17771</v>
+        <v>17766</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5708,10 +6123,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1833</v>
+        <v>1839</v>
       </c>
       <c r="C22" s="2">
-        <v>11670</v>
+        <v>11669</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5719,10 +6134,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C23" s="2">
-        <v>19454</v>
+        <v>19436</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5730,10 +6145,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3150</v>
+        <v>3161</v>
       </c>
       <c r="C24" s="2">
-        <v>34520</v>
+        <v>34517</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5752,10 +6167,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C26" s="2">
-        <v>1653</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5763,10 +6178,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5774,10 +6189,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3659</v>
+        <v>3664</v>
       </c>
       <c r="C28" s="2">
-        <v>29510</v>
+        <v>29504</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5785,10 +6200,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1728</v>
+        <v>1732</v>
       </c>
       <c r="C29" s="2">
-        <v>21094</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5807,7 +6222,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C31" s="2">
         <v>6870</v>
@@ -5818,7 +6233,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="C32" s="2">
         <v>10089</v>
@@ -5829,7 +6244,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C33" s="2">
         <v>10923</v>
@@ -5840,10 +6255,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C34" s="2">
-        <v>5700</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5862,10 +6277,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>22294</v>
+        <v>22344</v>
       </c>
       <c r="C36" s="2">
-        <v>214270</v>
+        <v>214241</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5954,7 +6369,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2">
         <v>3681</v>
@@ -5976,10 +6391,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="2">
-        <v>1538</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5987,7 +6402,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2">
         <v>409</v>
@@ -6031,7 +6446,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2">
         <v>2890</v>
@@ -6086,10 +6501,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C19" s="2">
-        <v>2695</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6097,10 +6512,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C20" s="2">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6108,10 +6523,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="C21" s="2">
-        <v>11192</v>
+        <v>11185</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6119,10 +6534,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C22" s="2">
-        <v>5468</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6130,10 +6545,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C23" s="2">
-        <v>29673</v>
+        <v>29660</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6141,7 +6556,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2334</v>
+        <v>2339</v>
       </c>
       <c r="C24" s="2">
         <v>25441</v>
@@ -6163,10 +6578,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C26" s="2">
-        <v>875</v>
+        <v>866</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6174,10 +6589,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C27" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,10 +6600,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2174</v>
+        <v>2179</v>
       </c>
       <c r="C28" s="2">
-        <v>17677</v>
+        <v>17666</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6196,10 +6611,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1222</v>
+        <v>1227</v>
       </c>
       <c r="C29" s="2">
-        <v>15376</v>
+        <v>15280</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6218,10 +6633,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C31" s="2">
-        <v>3411</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6229,7 +6644,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C32" s="2">
         <v>4001</v>
@@ -6240,10 +6655,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C33" s="2">
-        <v>5620</v>
+        <v>5619</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6251,7 +6666,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C34" s="2">
         <v>3486</v>
@@ -6273,10 +6688,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>13923</v>
+        <v>13974</v>
       </c>
       <c r="C36" s="2">
-        <v>151470</v>
+        <v>151331</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6365,7 +6780,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2">
         <v>2659</v>
@@ -6398,7 +6813,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>282</v>
@@ -6508,10 +6923,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C20" s="2">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6519,10 +6934,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C21" s="2">
-        <v>8041</v>
+        <v>8033</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6530,10 +6945,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="C22" s="2">
-        <v>3536</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6541,7 +6956,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C23" s="2">
         <v>16516</v>
@@ -6552,10 +6967,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="C24" s="2">
-        <v>20657</v>
+        <v>20656</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6574,10 +6989,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6585,10 +7000,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6596,10 +7011,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="C28" s="2">
-        <v>12772</v>
+        <v>12771</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6607,10 +7022,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="C29" s="2">
-        <v>10864</v>
+        <v>10783</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6629,10 +7044,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C31" s="2">
-        <v>1871</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6651,10 +7066,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C33" s="2">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6684,10 +7099,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>10516</v>
+        <v>10549</v>
       </c>
       <c r="C36" s="2">
-        <v>104355</v>
+        <v>104219</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6705,7 +7120,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C36"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6919,10 +7334,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C20" s="2">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6930,10 +7345,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C21" s="2">
-        <v>6687</v>
+        <v>6681</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6941,10 +7356,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C22" s="2">
-        <v>2842</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6952,10 +7367,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C23" s="2">
-        <v>16184</v>
+        <v>16180</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6963,10 +7378,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="C24" s="2">
-        <v>18617</v>
+        <v>18619</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6985,10 +7400,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6996,10 +7411,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -7007,10 +7422,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="C28" s="2">
-        <v>10359</v>
+        <v>10358</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7018,10 +7433,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C29" s="2">
-        <v>9627</v>
+        <v>9552</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -7040,7 +7455,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2">
         <v>1511</v>
@@ -7062,7 +7477,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C33" s="2">
         <v>2208</v>
@@ -7095,10 +7510,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8961</v>
+        <v>8989</v>
       </c>
       <c r="C36" s="2">
-        <v>89940</v>
+        <v>89847</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7330,10 +7745,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C20" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7341,10 +7756,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C21" s="2">
-        <v>3947</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7352,10 +7767,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C22" s="2">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7363,10 +7778,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C23" s="2">
-        <v>15448</v>
+        <v>15447</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7374,10 +7789,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1211</v>
+        <v>1216</v>
       </c>
       <c r="C24" s="2">
-        <v>14782</v>
+        <v>14778</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7407,10 +7822,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -7418,7 +7833,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C28" s="2">
         <v>7327</v>
@@ -7429,10 +7844,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="C29" s="2">
-        <v>7593</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -7473,7 +7888,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2">
         <v>1388</v>
@@ -7484,7 +7899,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C34" s="2">
         <v>1313</v>
@@ -7506,10 +7921,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6186</v>
+        <v>6207</v>
       </c>
       <c r="C36" s="2">
-        <v>69296</v>
+        <v>69218</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7741,10 +8156,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -7752,10 +8167,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C21" s="2">
-        <v>3907</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7763,10 +8178,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C22" s="2">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7774,10 +8189,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C23" s="2">
-        <v>14590</v>
+        <v>14589</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -7785,10 +8200,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="C24" s="2">
-        <v>16047</v>
+        <v>16048</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7818,10 +8233,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -7829,10 +8244,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C28" s="2">
-        <v>6702</v>
+        <v>6701</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7840,10 +8255,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C29" s="2">
-        <v>7637</v>
+        <v>7591</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -7873,7 +8288,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C32" s="2">
         <v>778</v>
@@ -7884,7 +8299,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C33" s="2">
         <v>1561</v>
@@ -7917,10 +8332,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6457</v>
+        <v>6476</v>
       </c>
       <c r="C36" s="2">
-        <v>68471</v>
+        <v>68419</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -8152,10 +8567,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -8163,10 +8578,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C21" s="6">
-        <v>4567</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -8174,10 +8589,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C22" s="2">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -8185,7 +8600,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C23" s="2">
         <v>14481</v>
@@ -8196,10 +8611,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2043</v>
+        <v>2052</v>
       </c>
       <c r="C24" s="6">
-        <v>21169</v>
+        <v>21167</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -8218,10 +8633,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C26" s="6">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -8229,10 +8644,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -8240,7 +8655,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C28" s="2">
         <v>9195</v>
@@ -8251,10 +8666,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C29" s="2">
-        <v>8389</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -8284,7 +8699,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C32" s="2">
         <v>1131</v>
@@ -8295,7 +8710,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C33" s="2">
         <v>4222</v>
@@ -8306,10 +8721,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C34" s="2">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -8328,10 +8743,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8217</v>
+        <v>8249</v>
       </c>
       <c r="C36" s="6">
-        <v>83446</v>
+        <v>83450</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">

--- a/KAE Ausz KonPe KTZH.xlsx
+++ b/KAE Ausz KonPe KTZH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26505" windowHeight="11895" firstSheet="18" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="März 2020" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="August 2021" sheetId="18" r:id="rId18"/>
     <sheet name="September 2021" sheetId="19" r:id="rId19"/>
     <sheet name="Oktober 2021" sheetId="20" r:id="rId20"/>
+    <sheet name="November 2021" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="60">
   <si>
     <t>Metriken</t>
   </si>
@@ -220,6 +221,9 @@
   </si>
   <si>
     <t>Oktober 2021</t>
+  </si>
+  <si>
+    <t>November 2021</t>
   </si>
 </sst>
 </file>
@@ -617,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C7" s="2">
         <v>4463</v>
@@ -749,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C19" s="2">
         <v>3562</v>
@@ -782,10 +786,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="C22" s="2">
-        <v>12017</v>
+        <v>12014</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -804,10 +808,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3427</v>
+        <v>3429</v>
       </c>
       <c r="C24" s="2">
-        <v>34222</v>
+        <v>34221</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -848,10 +852,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="C28" s="2">
-        <v>21185</v>
+        <v>21177</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -859,7 +863,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="C29" s="2">
         <v>23430</v>
@@ -903,10 +907,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C33" s="2">
-        <v>9410</v>
+        <v>9409</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -936,10 +940,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>20554</v>
+        <v>20566</v>
       </c>
       <c r="C36" s="2">
-        <v>176077</v>
+        <v>176064</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1083,10 +1087,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2">
-        <v>1182</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1127,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>1592</v>
@@ -1215,10 +1219,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="C24" s="2">
-        <v>24757</v>
+        <v>24770</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1259,10 +1263,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C28" s="2">
-        <v>8487</v>
+        <v>8477</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,10 +1274,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C29" s="2">
-        <v>8716</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1347,10 +1351,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8700</v>
+        <v>8712</v>
       </c>
       <c r="C36" s="2">
-        <v>90300</v>
+        <v>90295</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1538,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2">
         <v>1511</v>
@@ -1582,10 +1586,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C20" s="2">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1593,10 +1597,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C21" s="2">
-        <v>7647</v>
+        <v>7646</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1604,10 +1608,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C22" s="2">
-        <v>9108</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1626,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="C24" s="2">
         <v>26126</v>
@@ -1670,10 +1674,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="C28" s="2">
-        <v>16499</v>
+        <v>16488</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1681,10 +1685,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C29" s="2">
-        <v>10507</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,7 +1729,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C33" s="2">
         <v>8887</v>
@@ -1758,10 +1762,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>11802</v>
+        <v>11820</v>
       </c>
       <c r="C36" s="2">
-        <v>117575</v>
+        <v>117566</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2004,10 +2008,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C21" s="2">
-        <v>8114</v>
+        <v>8113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2015,7 +2019,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C22" s="2">
         <v>9626</v>
@@ -2037,10 +2041,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="C24" s="2">
-        <v>25877</v>
+        <v>25876</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2081,10 +2085,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="C28" s="2">
-        <v>16603</v>
+        <v>16591</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2092,10 +2096,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C29" s="2">
-        <v>11147</v>
+        <v>11144</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2114,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2">
         <v>2183</v>
@@ -2125,10 +2129,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C32" s="2">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2136,7 +2140,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C33" s="2">
         <v>8663</v>
@@ -2169,10 +2173,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>12123</v>
+        <v>12137</v>
       </c>
       <c r="C36" s="2">
-        <v>120411</v>
+        <v>120395</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2283,10 +2287,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2">
-        <v>1029</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2415,10 +2419,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C21" s="2">
-        <v>6045</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2448,10 +2452,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="C24" s="2">
-        <v>25045</v>
+        <v>25044</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2492,10 +2496,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C28" s="2">
-        <v>10255</v>
+        <v>10254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2503,10 +2507,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C29" s="2">
-        <v>9616</v>
+        <v>9613</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2525,7 +2529,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2">
         <v>1902</v>
@@ -2536,10 +2540,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2">
-        <v>1752</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2547,7 +2551,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C33" s="2">
         <v>8299</v>
@@ -2580,10 +2584,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>9700</v>
+        <v>9712</v>
       </c>
       <c r="C36" s="2">
-        <v>100200</v>
+        <v>100207</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2738,10 +2742,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2859,10 +2863,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="C24" s="2">
-        <v>23840</v>
+        <v>23841</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2892,7 +2896,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2">
         <v>429</v>
@@ -2903,7 +2907,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C28" s="2">
         <v>8582</v>
@@ -2914,10 +2918,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C29" s="2">
-        <v>8967</v>
+        <v>8964</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2947,10 +2951,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2">
-        <v>1621</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2958,7 +2962,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C33" s="2">
         <v>7783</v>
@@ -2969,10 +2973,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C34" s="2">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2991,10 +2995,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8539</v>
+        <v>8556</v>
       </c>
       <c r="C36" s="2">
-        <v>89035</v>
+        <v>89059</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3083,10 +3087,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2">
-        <v>2036</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3149,10 +3153,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3237,10 +3241,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C21" s="2">
-        <v>4386</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3270,10 +3274,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="C24" s="2">
-        <v>21861</v>
+        <v>21873</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3303,7 +3307,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2">
         <v>373</v>
@@ -3314,7 +3318,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C28" s="2">
         <v>6024</v>
@@ -3325,10 +3329,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C29" s="2">
-        <v>8195</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3358,10 +3362,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C32" s="2">
-        <v>996</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3380,7 +3384,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C34" s="2">
         <v>1947</v>
@@ -3402,10 +3406,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>7219</v>
+        <v>7238</v>
       </c>
       <c r="C36" s="2">
-        <v>73944</v>
+        <v>74158</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3494,10 +3498,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2">
-        <v>1221</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -3681,10 +3685,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="C24" s="2">
-        <v>14319</v>
+        <v>14321</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3725,10 +3729,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C28" s="2">
-        <v>4252</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3736,10 +3740,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C29" s="2">
-        <v>6382</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3758,10 +3762,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3769,10 +3773,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C32" s="2">
-        <v>775</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -3791,10 +3795,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C34" s="2">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3813,10 +3817,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>4474</v>
+        <v>4491</v>
       </c>
       <c r="C36" s="2">
-        <v>54930</v>
+        <v>55117</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4059,10 +4063,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2">
-        <v>1672</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4070,10 +4074,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4092,10 +4096,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C24" s="2">
-        <v>8677</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4136,10 +4140,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C28" s="2">
-        <v>2342</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4147,10 +4151,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C29" s="2">
-        <v>4049</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4180,10 +4184,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C32" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,10 +4206,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4224,10 +4228,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>3012</v>
+        <v>3030</v>
       </c>
       <c r="C36" s="2">
-        <v>36296</v>
+        <v>36375</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4316,7 +4320,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>761</v>
@@ -4459,10 +4463,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4470,10 +4474,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2">
-        <v>1287</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4503,10 +4507,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="C24" s="2">
-        <v>6734</v>
+        <v>6759</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4547,10 +4551,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C28" s="2">
-        <v>1817</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4558,10 +4562,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C29" s="2">
-        <v>3268</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4591,10 +4595,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4613,10 +4617,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4635,10 +4639,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>2415</v>
+        <v>2437</v>
       </c>
       <c r="C36" s="2">
-        <v>30190</v>
+        <v>30368</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4655,8 +4659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4749,10 +4753,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4793,10 +4797,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>123</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4804,10 +4808,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4881,10 +4885,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2">
-        <v>928</v>
+        <v>962</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4914,10 +4918,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C24" s="2">
-        <v>5494</v>
+        <v>5512</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,10 +4962,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2">
-        <v>1184</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4969,10 +4973,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2">
-        <v>2883</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5002,10 +5006,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5013,10 +5017,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,10 +5028,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,10 +5050,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>2041</v>
+        <v>2066</v>
       </c>
       <c r="C36" s="2">
-        <v>24867</v>
+        <v>25055</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5136,10 +5140,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C7" s="2">
-        <v>5762</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5268,7 +5272,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C19" s="2">
         <v>6971</v>
@@ -5279,7 +5283,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C20" s="2">
         <v>5885</v>
@@ -5301,10 +5305,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="C22" s="2">
-        <v>14189</v>
+        <v>14191</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5323,10 +5327,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="C24" s="2">
-        <v>36249</v>
+        <v>36248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5367,10 +5371,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3800</v>
+        <v>3802</v>
       </c>
       <c r="C28" s="2">
-        <v>32935</v>
+        <v>32926</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5378,10 +5382,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="C29" s="2">
-        <v>31647</v>
+        <v>31648</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5400,7 +5404,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C31" s="2">
         <v>8103</v>
@@ -5422,7 +5426,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C33" s="2">
         <v>11403</v>
@@ -5433,7 +5437,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C34" s="2">
         <v>8436</v>
@@ -5455,10 +5459,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>26332</v>
+        <v>26350</v>
       </c>
       <c r="C36" s="2">
-        <v>252832</v>
+        <v>252823</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5475,8 +5479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5569,10 +5573,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5612,11 +5616,11 @@
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
+      <c r="B13" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5624,10 +5628,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5679,10 +5683,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5701,10 +5705,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2">
-        <v>827</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5712,10 +5716,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5734,10 +5738,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="C24" s="2">
-        <v>4074</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5745,10 +5749,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
-        <v>268</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5778,10 +5782,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5789,10 +5793,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2">
-        <v>2001</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5822,10 +5826,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5833,10 +5837,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5844,10 +5848,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2">
-        <v>458</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5866,10 +5870,421 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>1787</v>
+        <v>1833</v>
       </c>
       <c r="C36" s="2">
-        <v>20623</v>
+        <v>20920</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>127</v>
+      </c>
+      <c r="C21" s="2">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>412</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>167</v>
+      </c>
+      <c r="C28" s="2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="2">
+        <v>217</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2">
+        <v>63</v>
+      </c>
+      <c r="C33" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1538</v>
+      </c>
+      <c r="C36" s="2">
+        <v>16066</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5958,10 +6373,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C7" s="2">
-        <v>5355</v>
+        <v>5353</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5980,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2">
         <v>1980</v>
@@ -6090,7 +6505,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="2">
         <v>5670</v>
@@ -6101,7 +6516,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C20" s="2">
         <v>4085</v>
@@ -6123,10 +6538,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="C22" s="2">
-        <v>11669</v>
+        <v>11673</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6145,10 +6560,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="C24" s="2">
-        <v>34517</v>
+        <v>34516</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6189,10 +6604,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="C28" s="2">
-        <v>29504</v>
+        <v>29494</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6200,10 +6615,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1732</v>
+        <v>1736</v>
       </c>
       <c r="C29" s="2">
-        <v>21090</v>
+        <v>21087</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6222,7 +6637,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C31" s="2">
         <v>6870</v>
@@ -6255,7 +6670,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C34" s="2">
         <v>5702</v>
@@ -6277,10 +6692,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>22344</v>
+        <v>22361</v>
       </c>
       <c r="C36" s="2">
-        <v>214241</v>
+        <v>214229</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6369,10 +6784,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" s="2">
-        <v>3681</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6391,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C9" s="2">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6424,7 +6839,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2">
         <v>2452</v>
@@ -6512,10 +6927,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C20" s="2">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6523,10 +6938,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C21" s="2">
-        <v>11185</v>
+        <v>11184</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6534,7 +6949,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C22" s="2">
         <v>5462</v>
@@ -6556,10 +6971,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="C24" s="2">
-        <v>25441</v>
+        <v>25440</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6603,7 +7018,7 @@
         <v>2179</v>
       </c>
       <c r="C28" s="2">
-        <v>17666</v>
+        <v>17658</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6611,10 +7026,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1227</v>
+        <v>1232</v>
       </c>
       <c r="C29" s="2">
-        <v>15280</v>
+        <v>15364</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6633,10 +7048,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C31" s="2">
-        <v>3408</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -6655,10 +7070,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C33" s="2">
-        <v>5619</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6666,10 +7081,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C34" s="2">
-        <v>3486</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6688,10 +7103,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>13974</v>
+        <v>13993</v>
       </c>
       <c r="C36" s="2">
-        <v>151331</v>
+        <v>151405</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6780,10 +7195,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2">
-        <v>2659</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -6835,10 +7250,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2">
-        <v>1905</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6934,10 +7349,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C21" s="2">
-        <v>8033</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6945,10 +7360,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C22" s="2">
-        <v>3533</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6967,7 +7382,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C24" s="2">
         <v>20656</v>
@@ -7011,10 +7426,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C28" s="2">
-        <v>12771</v>
+        <v>12762</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7022,10 +7437,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="C29" s="2">
-        <v>10783</v>
+        <v>10857</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -7044,10 +7459,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C31" s="2">
-        <v>1838</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -7066,10 +7481,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C33" s="2">
-        <v>2938</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7099,10 +7514,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>10549</v>
+        <v>10561</v>
       </c>
       <c r="C36" s="2">
-        <v>104219</v>
+        <v>104282</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7120,7 +7535,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B5" sqref="B5:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7191,10 +7606,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -7246,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2">
         <v>1700</v>
@@ -7345,10 +7760,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C21" s="2">
-        <v>6681</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7356,10 +7771,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C22" s="2">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -7378,7 +7793,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C24" s="2">
         <v>18619</v>
@@ -7422,10 +7837,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C28" s="2">
-        <v>10358</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7433,10 +7848,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C29" s="2">
-        <v>9552</v>
+        <v>9622</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -7455,10 +7870,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2">
-        <v>1511</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -7477,10 +7892,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -7510,10 +7925,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8989</v>
+        <v>8999</v>
       </c>
       <c r="C36" s="2">
-        <v>89847</v>
+        <v>89910</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -7602,7 +8017,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
         <v>1523</v>
@@ -7756,10 +8171,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C21" s="2">
-        <v>3946</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -7789,10 +8204,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="C24" s="2">
-        <v>14778</v>
+        <v>14777</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7833,10 +8248,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C28" s="2">
-        <v>7327</v>
+        <v>7316</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -7844,10 +8259,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="C29" s="2">
-        <v>7525</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -7921,10 +8336,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6207</v>
+        <v>6218</v>
       </c>
       <c r="C36" s="2">
-        <v>69218</v>
+        <v>69268</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -8013,7 +8428,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2">
         <v>1431</v>
@@ -8068,10 +8483,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8167,10 +8582,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C21" s="2">
-        <v>3906</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -8200,7 +8615,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="C24" s="2">
         <v>16048</v>
@@ -8244,10 +8659,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C28" s="2">
-        <v>6701</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -8255,10 +8670,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C29" s="2">
-        <v>7591</v>
+        <v>7639</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -8277,10 +8692,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8299,7 +8714,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C33" s="2">
         <v>1561</v>
@@ -8332,10 +8747,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>6476</v>
+        <v>6488</v>
       </c>
       <c r="C36" s="2">
-        <v>68419</v>
+        <v>68456</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -8424,7 +8839,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2">
         <v>1845</v>
@@ -8578,10 +8993,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C21" s="6">
-        <v>4588</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -8611,7 +9026,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>2052</v>
+        <v>2057</v>
       </c>
       <c r="C24" s="6">
         <v>21167</v>
@@ -8658,7 +9073,7 @@
         <v>1073</v>
       </c>
       <c r="C28" s="2">
-        <v>9195</v>
+        <v>9185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -8666,10 +9081,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C29" s="2">
-        <v>8367</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -8688,10 +9103,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C31" s="2">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8710,10 +9125,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C33" s="2">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -8743,10 +9158,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="2">
-        <v>8249</v>
+        <v>8262</v>
       </c>
       <c r="C36" s="6">
-        <v>83450</v>
+        <v>83460</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
